--- a/miniprogram/pages/猫咪档案.xlsx
+++ b/miniprogram/pages/猫咪档案.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10909"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A483425-2386-3648-A27F-5A410C556A4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7EEBB2B-6CDE-994F-9B43-C13C9B8AED65}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="校内喵" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">发现后直接寄养后送养!$A$12:$S$23</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">校内喵!$A$12:$S$111</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">校内喵!$A$12:$S$110</definedName>
   </definedNames>
   <calcPr calcId="150001"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="138">
   <si>
     <t>ID</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -81,30 +81,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>杰希</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>英杰</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>检查</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>一帆</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>土谦</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>小黄鸭</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>燕南园-54号楼</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -133,14 +113,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>奶牛</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑狸加白</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>橘白</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -165,14 +137,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>无情的警长</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>非常可爱的橘白</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>图例：</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -193,9 +157,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>长毛奶牛</t>
-  </si>
-  <si>
     <t>性别说明：</t>
   </si>
   <si>
@@ -262,15 +223,6 @@
     <t>橘白</t>
   </si>
   <si>
-    <t>大小眼 白多</t>
-  </si>
-  <si>
-    <t>好看的长毛奶牛 白多 小胡子</t>
-  </si>
-  <si>
-    <t>白多 2018年尾突然亲人</t>
-  </si>
-  <si>
     <t>健康</t>
   </si>
   <si>
@@ -284,14 +236,6 @@
   </si>
   <si>
     <t>修改的信息审校合格之后，按照确信信息的格式记</t>
-  </si>
-  <si>
-    <t>2018夏</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018春</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>状态</t>
@@ -315,10 +259,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>2018-03(~)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>2018-08(~)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -409,127 +349,114 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>杨梅</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>长毛玳瑁</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否写入图鉴</t>
+  </si>
+  <si>
+    <t>图鉴说明</t>
+  </si>
+  <si>
+    <t>写入</t>
+  </si>
+  <si>
+    <t>第一次被目击时间</t>
+  </si>
+  <si>
+    <t>第一次被目击地点</t>
+  </si>
+  <si>
+    <t>北线-2019秋</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗小黑</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>朗润-家属区</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>燕南园</t>
+  </si>
+  <si>
+    <t>理科三号楼</t>
+  </si>
+  <si>
+    <t>电教</t>
+  </si>
+  <si>
+    <t>朗润</t>
+  </si>
+  <si>
+    <t>橘</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>微纳楼</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>橘色虎斑纹，白肚皮，但是白色很少</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>一体</t>
+  </si>
+  <si>
+    <t>2019-05(~)</t>
+  </si>
+  <si>
+    <t>短毛橘</t>
+  </si>
+  <si>
+    <t>短毛黑，黄眼睛</t>
+  </si>
+  <si>
+    <t>霍夫</t>
+  </si>
+  <si>
+    <t>伙夫</t>
+  </si>
+  <si>
+    <t>2019 07 29</t>
+  </si>
+  <si>
+    <t>2019 06 10</t>
+  </si>
+  <si>
+    <t>2019 07 22</t>
+  </si>
+  <si>
+    <t>2019 07 18</t>
+  </si>
+  <si>
+    <t>2019 08 12</t>
+  </si>
+  <si>
+    <t>大米</t>
+  </si>
+  <si>
+    <t>宿舍区</t>
+  </si>
+  <si>
+    <t>澡堂</t>
+  </si>
+  <si>
+    <t>橘尾，白身，头顶有两块橘，短毛</t>
+  </si>
+  <si>
+    <t>短毛橘白，橘尾，白身，头顶有两块橘，背上和后腿上也有几块橘</t>
+  </si>
+  <si>
     <t>送养</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨梅</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>长毛玳瑁</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否写入图鉴</t>
-  </si>
-  <si>
-    <t>图鉴说明</t>
-  </si>
-  <si>
-    <t>写入</t>
-  </si>
-  <si>
-    <t>第一次被目击时间</t>
-  </si>
-  <si>
-    <t>第一次被目击地点</t>
-  </si>
-  <si>
-    <t>2017冬</t>
-  </si>
-  <si>
-    <t>2018秋</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018秋 </t>
-  </si>
-  <si>
-    <t>北线-2019秋</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>罗小黑</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>朗润-家属区</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>燕南园</t>
-  </si>
-  <si>
-    <t>理科三号楼</t>
-  </si>
-  <si>
-    <t>电教</t>
-  </si>
-  <si>
-    <t>朗润</t>
-  </si>
-  <si>
-    <t>橘</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>微纳楼</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>橘色虎斑纹，白肚皮，但是白色很少</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>一体</t>
-  </si>
-  <si>
-    <t>2019-05(~)</t>
-  </si>
-  <si>
-    <t>短毛橘</t>
-  </si>
-  <si>
-    <t>短毛黑，黄眼睛</t>
-  </si>
-  <si>
-    <t>霍夫</t>
-  </si>
-  <si>
-    <t>伙夫</t>
-  </si>
-  <si>
-    <t>2019 07 29</t>
-  </si>
-  <si>
-    <t>2019 06 10</t>
-  </si>
-  <si>
-    <t>2019 07 22</t>
-  </si>
-  <si>
-    <t>2019 07 18</t>
-  </si>
-  <si>
-    <t>2019 08 12</t>
-  </si>
-  <si>
-    <t>大米</t>
-  </si>
-  <si>
-    <t>宿舍区</t>
-  </si>
-  <si>
-    <t>澡堂</t>
-  </si>
-  <si>
-    <t>橘尾，白身，头顶有两块橘，短毛</t>
-  </si>
-  <si>
-    <t>短毛橘白，橘尾，白身，头顶有两块橘，背上和后腿上也有几块橘</t>
-  </si>
-  <si>
-    <t>送养</t>
   </si>
   <si>
     <t>湖北</t>
@@ -547,9 +474,6 @@
     <t>2019 09 27</t>
   </si>
   <si>
-    <t>2016冬</t>
-  </si>
-  <si>
     <t>最近更新时间：2019-11-04</t>
   </si>
   <si>
@@ -572,6 +496,26 @@
   </si>
   <si>
     <t>最后补充的照片数</t>
+  </si>
+  <si>
+    <t>虎子</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>虎爷/虎妞</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>白狸</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>小狮子</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020年初</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -579,40 +523,40 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -635,7 +579,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -643,7 +587,7 @@
       <u/>
       <sz val="11"/>
       <color theme="11"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -671,19 +615,20 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="SimSun"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1028,25 +973,25 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1058,7 +1003,7 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1074,7 +1019,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="18" applyFont="1" applyAlignment="1">
@@ -1083,7 +1028,7 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="19" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="0" xfId="19" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="9" borderId="0" xfId="19" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="19" applyFont="1"/>
@@ -1099,7 +1044,7 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1170,7 +1115,7 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="13" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="18" applyFont="1" applyAlignment="1">
@@ -1183,13 +1128,13 @@
     <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -1207,7 +1152,7 @@
     <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="18" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" xfId="18" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="13" fillId="8" borderId="0" xfId="18" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="18" applyFont="1" applyAlignment="1">
@@ -1216,7 +1161,7 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="18" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="13" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="18" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1235,8 +1180,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1268,41 +1225,29 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="21">
-    <cellStyle name="20% - Accent2" xfId="1" builtinId="34"/>
-    <cellStyle name="20% - Accent5" xfId="19" builtinId="46"/>
-    <cellStyle name="40% - Accent2" xfId="20" builtinId="35"/>
-    <cellStyle name="40% - Accent3" xfId="18" builtinId="39"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="20% - 着色 2" xfId="1" builtinId="34"/>
+    <cellStyle name="20% - 着色 5" xfId="19" builtinId="46"/>
+    <cellStyle name="40% - 着色 2" xfId="20" builtinId="35"/>
+    <cellStyle name="40% - 着色 3" xfId="18" builtinId="39"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="17" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1580,10 +1525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W119"/>
+  <dimension ref="A1:W118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -1616,16 +1561,16 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:23">
@@ -1635,108 +1580,108 @@
     </row>
     <row r="3" spans="1:23">
       <c r="A3" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="111" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="112"/>
+      <c r="D3" s="68"/>
+      <c r="F3" s="109" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="110"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="113" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="114"/>
+      <c r="L3" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="107" t="s">
+      <c r="O3" s="70" t="s">
         <v>36</v>
-      </c>
-      <c r="C3" s="108"/>
-      <c r="D3" s="68"/>
-      <c r="F3" s="119" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="120"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="109" t="s">
-        <v>38</v>
-      </c>
-      <c r="J3" s="110"/>
-      <c r="L3" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="M3" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="N3" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="O3" s="70" t="s">
-        <v>46</v>
       </c>
       <c r="P3" s="65"/>
       <c r="Q3" s="11" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="R3" s="22">
         <v>6</v>
       </c>
       <c r="S3" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="T3" s="117" t="s">
-        <v>57</v>
+        <v>41</v>
+      </c>
+      <c r="T3" s="107" t="s">
+        <v>47</v>
       </c>
       <c r="U3" s="11" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="V3" s="63">
         <v>0</v>
       </c>
       <c r="W3" s="64" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:23">
       <c r="E4" s="1"/>
       <c r="H4" s="5"/>
       <c r="M4" s="20" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="O4" s="71" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="P4" s="65"/>
       <c r="R4" s="13">
         <v>5</v>
       </c>
       <c r="S4" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="T4" s="118"/>
+        <v>42</v>
+      </c>
+      <c r="T4" s="108"/>
       <c r="V4" s="3" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="15" customHeight="1">
-      <c r="B5" s="111" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="112"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="113"/>
-      <c r="G5" s="107" t="s">
-        <v>70</v>
-      </c>
-      <c r="H5" s="114"/>
-      <c r="I5" s="114"/>
-      <c r="J5" s="108"/>
+      <c r="B5" s="115" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="117"/>
+      <c r="G5" s="111" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="118"/>
+      <c r="I5" s="118"/>
+      <c r="J5" s="112"/>
       <c r="M5" s="21" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="O5" s="69" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="P5" s="65"/>
       <c r="R5" s="13">
         <v>4</v>
       </c>
       <c r="S5" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="T5" s="118"/>
+        <v>40</v>
+      </c>
+      <c r="T5" s="108"/>
     </row>
     <row r="6" spans="1:23">
       <c r="F6" s="24"/>
@@ -1744,10 +1689,10 @@
         <v>3</v>
       </c>
       <c r="S6" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="T6" s="118" t="s">
-        <v>58</v>
+        <v>43</v>
+      </c>
+      <c r="T6" s="108" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1757,19 +1702,19 @@
       <c r="F7" s="24"/>
       <c r="H7" s="4"/>
       <c r="N7" s="11" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="O7" s="70" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="P7" s="65"/>
       <c r="R7" s="13">
         <v>2</v>
       </c>
       <c r="S7" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="T7" s="118"/>
+        <v>44</v>
+      </c>
+      <c r="T7" s="108"/>
     </row>
     <row r="8" spans="1:23">
       <c r="C8" s="24"/>
@@ -1778,17 +1723,17 @@
       <c r="F8" s="24"/>
       <c r="H8" s="4"/>
       <c r="O8" s="71" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="P8" s="65"/>
       <c r="R8" s="13">
         <v>1</v>
       </c>
       <c r="S8" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="T8" s="118" t="s">
-        <v>59</v>
+        <v>45</v>
+      </c>
+      <c r="T8" s="108" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1798,16 +1743,16 @@
       <c r="F9" s="24"/>
       <c r="H9" s="4"/>
       <c r="O9" s="71" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="P9" s="65"/>
       <c r="R9" s="13">
         <v>0</v>
       </c>
       <c r="S9" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="T9" s="118"/>
+        <v>46</v>
+      </c>
+      <c r="T9" s="108"/>
     </row>
     <row r="10" spans="1:23">
       <c r="C10" s="24"/>
@@ -1815,25 +1760,25 @@
       <c r="E10" s="24"/>
       <c r="F10" s="24"/>
       <c r="H10" s="4"/>
-      <c r="O10" s="115" t="s">
-        <v>77</v>
+      <c r="O10" s="119" t="s">
+        <v>62</v>
       </c>
       <c r="P10" s="66"/>
       <c r="R10" s="14">
         <v>-1</v>
       </c>
       <c r="S10" s="17" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="T10" s="18"/>
     </row>
     <row r="11" spans="1:23">
-      <c r="O11" s="116"/>
+      <c r="O11" s="120"/>
       <c r="P11" s="67"/>
     </row>
     <row r="12" spans="1:23">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>0</v>
@@ -1842,7 +1787,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>2</v>
@@ -1866,19 +1811,19 @@
         <v>8</v>
       </c>
       <c r="L12" s="33" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>9</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="P12" s="16" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="Q12" s="3" t="s">
         <v>10</v>
@@ -1887,10 +1832,10 @@
         <v>11</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="T12" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1898,239 +1843,123 @@
         <v>1</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>12</v>
+        <v>133</v>
       </c>
       <c r="D13" s="3">
+        <v>2</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H13" s="8">
+        <v>1</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H13" s="8">
-        <v>0</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J13" s="3">
-        <v>1</v>
-      </c>
-      <c r="K13" s="38" t="s">
-        <v>72</v>
-      </c>
+      <c r="K13" s="38"/>
       <c r="M13" s="26" t="s">
-        <v>63</v>
+        <v>136</v>
       </c>
       <c r="N13" s="61">
         <v>5</v>
       </c>
-      <c r="O13" s="36" t="s">
-        <v>145</v>
-      </c>
+      <c r="O13" s="36"/>
       <c r="P13" s="24"/>
+      <c r="T13" s="3" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="14" spans="1:23" ht="15">
-      <c r="B14" s="2">
-        <v>2</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="3">
-        <v>2</v>
-      </c>
-      <c r="F14" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="H14" s="8">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J14" s="3">
-        <v>1</v>
-      </c>
-      <c r="K14" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="M14" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="N14" s="24">
-        <v>4</v>
-      </c>
-      <c r="O14" s="72" t="s">
-        <v>110</v>
-      </c>
+      <c r="F14" s="24"/>
+      <c r="H14" s="8"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="72"/>
       <c r="P14" s="24"/>
     </row>
     <row r="15" spans="1:23">
-      <c r="B15" s="2">
-        <v>3</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H15" s="7">
-        <v>1</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="N15" s="3">
-        <v>1</v>
-      </c>
-      <c r="O15" s="36" t="s">
-        <v>110</v>
-      </c>
+      <c r="O15" s="36"/>
       <c r="P15" s="24"/>
     </row>
     <row r="16" spans="1:23" ht="15">
-      <c r="B16" s="2">
-        <v>4</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="3">
-        <v>0</v>
-      </c>
-      <c r="F16" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="H16" s="7">
-        <v>1</v>
-      </c>
-      <c r="I16" t="s">
-        <v>102</v>
-      </c>
-      <c r="J16" s="3">
-        <v>1</v>
-      </c>
-      <c r="K16" s="33">
-        <v>43432</v>
-      </c>
-      <c r="M16" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="N16" s="3">
-        <v>6</v>
-      </c>
-      <c r="O16" s="72" t="s">
-        <v>112</v>
-      </c>
+      <c r="F16" s="62"/>
+      <c r="I16"/>
+      <c r="M16" s="26"/>
+      <c r="O16" s="72"/>
       <c r="P16" s="24"/>
       <c r="T16" s="23"/>
     </row>
     <row r="17" spans="2:20" ht="15">
-      <c r="B17" s="2">
-        <v>5</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="3">
-        <v>0</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J17" s="3">
-        <v>1</v>
-      </c>
-      <c r="K17" s="33">
-        <v>43412</v>
-      </c>
-      <c r="L17" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="N17" s="81">
-        <v>4</v>
-      </c>
-      <c r="O17" s="36" t="s">
-        <v>111</v>
-      </c>
+      <c r="N17" s="81"/>
+      <c r="O17" s="36"/>
       <c r="P17" s="24"/>
       <c r="T17" s="23"/>
     </row>
-    <row r="18" spans="2:20" ht="15">
-      <c r="F18" s="24"/>
+    <row r="18" spans="2:20">
+      <c r="H18" s="48"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="49"/>
       <c r="M18" s="26"/>
-      <c r="N18" s="81"/>
       <c r="O18" s="36"/>
       <c r="P18" s="24"/>
-      <c r="Q18" s="26"/>
-    </row>
-    <row r="19" spans="2:20">
-      <c r="H19" s="48"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="49"/>
+    </row>
+    <row r="19" spans="2:20" ht="15">
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
       <c r="M19" s="26"/>
-      <c r="O19" s="36"/>
+      <c r="O19" s="73"/>
       <c r="P19" s="24"/>
-    </row>
-    <row r="20" spans="2:20" ht="15">
-      <c r="I20"/>
-      <c r="J20"/>
-      <c r="K20"/>
-      <c r="M20" s="26"/>
-      <c r="O20" s="73"/>
-      <c r="P20" s="24"/>
-      <c r="R20"/>
-      <c r="T20" s="23"/>
-    </row>
-    <row r="21" spans="2:20" s="40" customFormat="1" ht="15">
-      <c r="B21" s="50"/>
-      <c r="D21" s="84"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="46"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="44"/>
-      <c r="O21" s="74"/>
-      <c r="P21" s="45"/>
-    </row>
-    <row r="22" spans="2:20" ht="15">
-      <c r="I22"/>
+      <c r="R19"/>
+      <c r="T19" s="23"/>
+    </row>
+    <row r="20" spans="2:20" s="40" customFormat="1" ht="15">
+      <c r="B20" s="50"/>
+      <c r="D20" s="84"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="46"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="44"/>
+      <c r="O20" s="74"/>
+      <c r="P20" s="45"/>
+    </row>
+    <row r="21" spans="2:20" ht="15">
+      <c r="I21"/>
+      <c r="Q21" s="26"/>
+    </row>
+    <row r="22" spans="2:20">
       <c r="Q22" s="26"/>
     </row>
-    <row r="23" spans="2:20">
-      <c r="Q23" s="26"/>
-    </row>
-    <row r="24" spans="2:20" ht="15">
-      <c r="E24"/>
-      <c r="H24"/>
-      <c r="I24"/>
-      <c r="J24"/>
-      <c r="K24"/>
+    <row r="23" spans="2:20" ht="15">
+      <c r="E23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="81"/>
+      <c r="O23" s="72"/>
+      <c r="P23"/>
+      <c r="Q23"/>
+    </row>
+    <row r="24" spans="2:20">
+      <c r="F24" s="26"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="6"/>
       <c r="M24" s="26"/>
-      <c r="N24" s="81"/>
-      <c r="O24" s="72"/>
-      <c r="P24"/>
-      <c r="Q24"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="36"/>
+      <c r="P24" s="24"/>
     </row>
     <row r="25" spans="2:20">
       <c r="F25" s="26"/>
@@ -2142,346 +1971,342 @@
       <c r="O25" s="36"/>
       <c r="P25" s="24"/>
     </row>
-    <row r="26" spans="2:20">
+    <row r="26" spans="2:20" ht="15">
       <c r="F26" s="26"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="6"/>
+      <c r="H26" s="27"/>
+      <c r="I26"/>
+      <c r="J26" s="26"/>
+      <c r="L26" s="35"/>
       <c r="M26" s="26"/>
       <c r="N26" s="24"/>
       <c r="O26" s="36"/>
       <c r="P26" s="24"/>
+      <c r="Q26" s="26"/>
     </row>
     <row r="27" spans="2:20" ht="15">
       <c r="F27" s="26"/>
       <c r="H27" s="27"/>
-      <c r="I27"/>
+      <c r="I27" s="6"/>
       <c r="J27" s="26"/>
-      <c r="L27" s="35"/>
       <c r="M27" s="26"/>
       <c r="N27" s="24"/>
-      <c r="O27" s="36"/>
+      <c r="O27" s="79"/>
       <c r="P27" s="24"/>
-      <c r="Q27" s="26"/>
     </row>
     <row r="28" spans="2:20" ht="15">
       <c r="F28" s="26"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="26"/>
-      <c r="M28" s="26"/>
+      <c r="H28" s="82"/>
+      <c r="I28" s="26"/>
       <c r="N28" s="24"/>
-      <c r="O28" s="79"/>
+      <c r="O28" s="36"/>
       <c r="P28" s="24"/>
     </row>
     <row r="29" spans="2:20" ht="15">
-      <c r="F29" s="26"/>
-      <c r="H29" s="82"/>
+      <c r="C29"/>
+      <c r="H29"/>
       <c r="I29" s="26"/>
+      <c r="J29"/>
+      <c r="K29" s="88"/>
+      <c r="M29" s="26"/>
       <c r="N29" s="24"/>
-      <c r="O29" s="36"/>
-      <c r="P29" s="24"/>
     </row>
     <row r="30" spans="2:20" ht="15">
-      <c r="C30"/>
-      <c r="H30"/>
-      <c r="I30" s="26"/>
+      <c r="H30" s="9"/>
       <c r="J30"/>
-      <c r="K30" s="88"/>
+      <c r="K30"/>
       <c r="M30" s="26"/>
-      <c r="N30" s="24"/>
-    </row>
-    <row r="31" spans="2:20" ht="15">
+    </row>
+    <row r="31" spans="2:20">
       <c r="H31" s="9"/>
-      <c r="J31"/>
-      <c r="K31"/>
+      <c r="J31" s="6"/>
       <c r="M31" s="26"/>
+      <c r="O31" s="36"/>
+      <c r="P31" s="24"/>
     </row>
     <row r="32" spans="2:20">
-      <c r="H32" s="9"/>
+      <c r="F32" s="26"/>
+      <c r="H32" s="27"/>
       <c r="J32" s="6"/>
       <c r="M32" s="26"/>
       <c r="O32" s="36"/>
       <c r="P32" s="24"/>
     </row>
-    <row r="33" spans="1:20">
-      <c r="F33" s="26"/>
-      <c r="H33" s="27"/>
+    <row r="33" spans="1:20" ht="15">
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="F33"/>
+      <c r="H33" s="9"/>
+      <c r="I33"/>
       <c r="J33" s="6"/>
-      <c r="M33" s="26"/>
+      <c r="M33"/>
       <c r="O33" s="36"/>
       <c r="P33" s="24"/>
     </row>
-    <row r="34" spans="1:20" ht="15">
-      <c r="C34"/>
-      <c r="D34"/>
-      <c r="F34"/>
-      <c r="H34" s="9"/>
-      <c r="I34"/>
-      <c r="J34" s="6"/>
-      <c r="M34"/>
+    <row r="34" spans="1:20">
       <c r="O34" s="36"/>
       <c r="P34" s="24"/>
     </row>
     <row r="35" spans="1:20">
-      <c r="O35" s="36"/>
-      <c r="P35" s="24"/>
-    </row>
-    <row r="36" spans="1:20">
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="H35" s="51"/>
+      <c r="L35" s="52"/>
+      <c r="O35" s="75"/>
+      <c r="P35" s="53"/>
+    </row>
+    <row r="36" spans="1:20" ht="15">
       <c r="C36" s="26"/>
       <c r="D36" s="26"/>
-      <c r="H36" s="51"/>
-      <c r="L36" s="52"/>
-      <c r="O36" s="75"/>
-      <c r="P36" s="53"/>
-    </row>
-    <row r="37" spans="1:20" ht="15">
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="81"/>
-      <c r="M37" s="26"/>
-      <c r="O37" s="36"/>
-      <c r="P37" s="24"/>
-    </row>
-    <row r="38" spans="1:20" s="56" customFormat="1">
-      <c r="A38" s="54"/>
-      <c r="B38" s="55"/>
-      <c r="H38" s="57"/>
-      <c r="I38" s="59"/>
-      <c r="K38" s="58"/>
-      <c r="L38" s="58"/>
-      <c r="O38" s="76"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="81"/>
+      <c r="M36" s="26"/>
+      <c r="O36" s="36"/>
+      <c r="P36" s="24"/>
+    </row>
+    <row r="37" spans="1:20" s="56" customFormat="1">
+      <c r="A37" s="54"/>
+      <c r="B37" s="55"/>
+      <c r="H37" s="57"/>
+      <c r="I37" s="59"/>
+      <c r="K37" s="58"/>
+      <c r="L37" s="58"/>
+      <c r="O37" s="76"/>
+    </row>
+    <row r="38" spans="1:20" ht="15">
+      <c r="F38" s="26"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="81"/>
+      <c r="M38" s="26"/>
+      <c r="N38" s="24"/>
+      <c r="O38" s="77"/>
+      <c r="P38" s="26"/>
     </row>
     <row r="39" spans="1:20" ht="15">
-      <c r="F39" s="26"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="81"/>
+      <c r="C39"/>
+      <c r="H39"/>
+      <c r="I39" s="26"/>
+      <c r="J39"/>
+      <c r="K39" s="88"/>
       <c r="M39" s="26"/>
       <c r="N39" s="24"/>
       <c r="O39" s="77"/>
       <c r="P39" s="26"/>
     </row>
-    <row r="40" spans="1:20" ht="15">
-      <c r="C40"/>
-      <c r="H40"/>
-      <c r="I40" s="26"/>
-      <c r="J40"/>
-      <c r="K40" s="88"/>
+    <row r="40" spans="1:20">
+      <c r="F40" s="28"/>
       <c r="M40" s="26"/>
-      <c r="N40" s="24"/>
-      <c r="O40" s="77"/>
-      <c r="P40" s="26"/>
-    </row>
-    <row r="41" spans="1:20">
-      <c r="F41" s="28"/>
-      <c r="M41" s="26"/>
+      <c r="O40" s="36"/>
+      <c r="P40" s="24"/>
+    </row>
+    <row r="41" spans="1:20" ht="15">
+      <c r="G41" s="81"/>
+      <c r="J41" s="81"/>
+      <c r="K41" s="83"/>
       <c r="O41" s="36"/>
       <c r="P41" s="24"/>
     </row>
-    <row r="42" spans="1:20" ht="15">
-      <c r="G42" s="81"/>
-      <c r="J42" s="81"/>
-      <c r="K42" s="83"/>
+    <row r="42" spans="1:20">
+      <c r="F42" s="24"/>
+      <c r="L42" s="35"/>
+      <c r="M42" s="26"/>
       <c r="O42" s="36"/>
       <c r="P42" s="24"/>
+      <c r="Q42" s="26"/>
     </row>
     <row r="43" spans="1:20">
       <c r="F43" s="24"/>
-      <c r="L43" s="35"/>
       <c r="M43" s="26"/>
       <c r="O43" s="36"/>
       <c r="P43" s="24"/>
-      <c r="Q43" s="26"/>
-    </row>
-    <row r="44" spans="1:20">
-      <c r="F44" s="24"/>
+    </row>
+    <row r="44" spans="1:20" ht="15">
+      <c r="F44" s="26"/>
+      <c r="K44" s="35"/>
+      <c r="L44" s="36"/>
       <c r="M44" s="26"/>
-      <c r="O44" s="36"/>
-      <c r="P44" s="24"/>
-    </row>
-    <row r="45" spans="1:20" ht="15">
+      <c r="N44" s="81"/>
+    </row>
+    <row r="45" spans="1:20">
       <c r="F45" s="26"/>
-      <c r="K45" s="35"/>
-      <c r="L45" s="36"/>
       <c r="M45" s="26"/>
-      <c r="N45" s="81"/>
-    </row>
-    <row r="46" spans="1:20">
-      <c r="F46" s="26"/>
-      <c r="M46" s="26"/>
-      <c r="O46" s="36"/>
-      <c r="P46" s="24"/>
+      <c r="O45" s="36"/>
+      <c r="P45" s="24"/>
+    </row>
+    <row r="46" spans="1:20" ht="15">
+      <c r="F46" s="24"/>
+      <c r="I46"/>
+      <c r="O46" s="77"/>
+      <c r="P46" s="26"/>
+      <c r="T46" s="12"/>
     </row>
     <row r="47" spans="1:20" ht="15">
-      <c r="F47" s="24"/>
       <c r="I47"/>
-      <c r="O47" s="77"/>
-      <c r="P47" s="26"/>
+      <c r="O47" s="36"/>
+      <c r="P47" s="24"/>
       <c r="T47" s="12"/>
     </row>
     <row r="48" spans="1:20" ht="15">
-      <c r="I48"/>
-      <c r="O48" s="36"/>
+      <c r="N48" s="81"/>
+      <c r="O48" s="79"/>
       <c r="P48" s="24"/>
-      <c r="T48" s="12"/>
     </row>
     <row r="49" spans="3:20" ht="15">
-      <c r="N49" s="81"/>
       <c r="O49" s="79"/>
       <c r="P49" s="24"/>
     </row>
     <row r="50" spans="3:20" ht="15">
-      <c r="O50" s="79"/>
-      <c r="P50" s="24"/>
-    </row>
-    <row r="51" spans="3:20" ht="15">
-      <c r="F51" s="26"/>
-      <c r="J51" s="81"/>
-      <c r="L51" s="35"/>
-      <c r="M51" s="26"/>
-      <c r="N51" s="81"/>
-      <c r="O51" s="77"/>
-      <c r="P51" s="26"/>
-      <c r="Q51" s="26"/>
-    </row>
-    <row r="53" spans="3:20">
+      <c r="F50" s="26"/>
+      <c r="J50" s="81"/>
+      <c r="L50" s="35"/>
+      <c r="M50" s="26"/>
+      <c r="N50" s="81"/>
+      <c r="O50" s="77"/>
+      <c r="P50" s="26"/>
+      <c r="Q50" s="26"/>
+    </row>
+    <row r="52" spans="3:20">
+      <c r="M52" s="26"/>
+      <c r="N52" s="24"/>
+      <c r="O52" s="36"/>
+      <c r="P52" s="24"/>
+    </row>
+    <row r="53" spans="3:20" ht="15">
+      <c r="F53" s="31"/>
+      <c r="H53" s="9"/>
+      <c r="J53" s="6"/>
       <c r="M53" s="26"/>
-      <c r="N53" s="24"/>
-      <c r="O53" s="36"/>
-      <c r="P53" s="24"/>
-    </row>
-    <row r="54" spans="3:20" ht="15">
-      <c r="F54" s="31"/>
-      <c r="H54" s="9"/>
-      <c r="J54" s="6"/>
+      <c r="O53" s="79"/>
+      <c r="P53" s="25"/>
+    </row>
+    <row r="54" spans="3:20">
+      <c r="K54" s="39"/>
       <c r="M54" s="26"/>
-      <c r="O54" s="79"/>
-      <c r="P54" s="25"/>
+      <c r="O54" s="36"/>
+      <c r="P54" s="24"/>
     </row>
     <row r="55" spans="3:20">
-      <c r="K55" s="39"/>
+      <c r="F55" s="26"/>
       <c r="M55" s="26"/>
       <c r="O55" s="36"/>
       <c r="P55" s="24"/>
     </row>
-    <row r="56" spans="3:20">
-      <c r="F56" s="26"/>
+    <row r="56" spans="3:20" ht="15">
+      <c r="H56" s="82"/>
+      <c r="J56" s="81"/>
+      <c r="K56" s="39"/>
       <c r="M56" s="26"/>
       <c r="O56" s="36"/>
       <c r="P56" s="24"/>
     </row>
     <row r="57" spans="3:20" ht="15">
-      <c r="H57" s="82"/>
-      <c r="J57" s="81"/>
-      <c r="K57" s="39"/>
+      <c r="I57"/>
       <c r="M57" s="26"/>
       <c r="O57" s="36"/>
       <c r="P57" s="24"/>
+      <c r="T57" s="12"/>
     </row>
     <row r="58" spans="3:20" ht="15">
-      <c r="I58"/>
+      <c r="I58" s="23"/>
       <c r="M58" s="26"/>
-      <c r="O58" s="36"/>
+      <c r="O58" s="79"/>
       <c r="P58" s="24"/>
-      <c r="T58" s="12"/>
     </row>
     <row r="59" spans="3:20" ht="15">
-      <c r="I59" s="23"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="I59" s="81"/>
       <c r="M59" s="26"/>
-      <c r="O59" s="79"/>
-      <c r="P59" s="24"/>
-    </row>
-    <row r="60" spans="3:20" ht="15">
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="I60" s="81"/>
+      <c r="O59" s="80"/>
+    </row>
+    <row r="60" spans="3:20">
       <c r="M60" s="26"/>
-      <c r="O60" s="80"/>
-    </row>
-    <row r="61" spans="3:20">
-      <c r="M61" s="26"/>
-    </row>
-    <row r="63" spans="3:20" ht="15">
-      <c r="E63" s="1"/>
-      <c r="F63" s="26"/>
-      <c r="I63" s="81"/>
-      <c r="M63" s="26"/>
-      <c r="N63" s="26"/>
+    </row>
+    <row r="62" spans="3:20" ht="15">
+      <c r="E62" s="1"/>
+      <c r="F62" s="26"/>
+      <c r="I62" s="81"/>
+      <c r="M62" s="26"/>
+      <c r="N62" s="26"/>
+    </row>
+    <row r="63" spans="3:20">
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="6"/>
+      <c r="M63" s="6"/>
+      <c r="N63" s="6"/>
     </row>
     <row r="64" spans="3:20">
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
-      <c r="F64" s="6"/>
-      <c r="H64" s="9"/>
+      <c r="F64" s="26"/>
+      <c r="H64" s="27"/>
       <c r="I64" s="1"/>
-      <c r="J64" s="6"/>
-      <c r="M64" s="6"/>
-      <c r="N64" s="6"/>
+      <c r="J64" s="26"/>
+      <c r="M64" s="26"/>
+      <c r="N64" s="24"/>
     </row>
     <row r="65" spans="3:17">
-      <c r="F65" s="26"/>
-      <c r="H65" s="27"/>
-      <c r="I65" s="1"/>
-      <c r="J65" s="26"/>
       <c r="M65" s="26"/>
-      <c r="N65" s="24"/>
     </row>
     <row r="66" spans="3:17">
+      <c r="F66" s="26"/>
       <c r="M66" s="26"/>
-    </row>
-    <row r="67" spans="3:17">
-      <c r="F67" s="26"/>
+      <c r="N66" s="1"/>
+    </row>
+    <row r="67" spans="3:17" ht="15">
+      <c r="H67" s="82"/>
+      <c r="J67" s="32"/>
       <c r="M67" s="26"/>
-      <c r="N67" s="1"/>
-    </row>
-    <row r="68" spans="3:17" ht="15">
-      <c r="H68" s="82"/>
+      <c r="O67" s="78"/>
+      <c r="P67" s="29"/>
+      <c r="Q67" s="26"/>
+    </row>
+    <row r="68" spans="3:17">
+      <c r="H68" s="30"/>
       <c r="J68" s="32"/>
       <c r="M68" s="26"/>
-      <c r="O68" s="78"/>
-      <c r="P68" s="29"/>
       <c r="Q68" s="26"/>
     </row>
     <row r="69" spans="3:17">
-      <c r="H69" s="30"/>
-      <c r="J69" s="32"/>
+      <c r="I69" s="26"/>
       <c r="M69" s="26"/>
-      <c r="Q69" s="26"/>
+      <c r="O69" s="36"/>
+      <c r="P69" s="24"/>
     </row>
     <row r="70" spans="3:17">
-      <c r="I70" s="26"/>
+      <c r="F70" s="26"/>
+      <c r="H70" s="9"/>
+      <c r="J70" s="6"/>
       <c r="M70" s="26"/>
-      <c r="O70" s="36"/>
-      <c r="P70" s="24"/>
-    </row>
-    <row r="71" spans="3:17">
-      <c r="F71" s="26"/>
-      <c r="H71" s="9"/>
-      <c r="J71" s="6"/>
+    </row>
+    <row r="71" spans="3:17" ht="15">
+      <c r="C71" s="81"/>
+      <c r="D71" s="6"/>
+      <c r="H71" s="82"/>
+      <c r="I71" s="81"/>
+      <c r="J71" s="81"/>
       <c r="M71" s="26"/>
     </row>
-    <row r="72" spans="3:17" ht="15">
-      <c r="C72" s="81"/>
+    <row r="72" spans="3:17">
+      <c r="C72" s="6"/>
       <c r="D72" s="6"/>
-      <c r="H72" s="82"/>
-      <c r="I72" s="81"/>
-      <c r="J72" s="81"/>
       <c r="M72" s="26"/>
     </row>
-    <row r="73" spans="3:17">
-      <c r="C73" s="6"/>
+    <row r="73" spans="3:17" ht="15">
+      <c r="C73" s="81"/>
       <c r="D73" s="6"/>
-      <c r="M73" s="26"/>
-    </row>
-    <row r="74" spans="3:17" ht="15">
-      <c r="C74" s="81"/>
+      <c r="H73" s="82"/>
+      <c r="I73" s="81"/>
+      <c r="J73" s="81"/>
+      <c r="M73" s="81"/>
+      <c r="N73" s="81"/>
+    </row>
+    <row r="74" spans="3:17">
+      <c r="C74" s="6"/>
       <c r="D74" s="6"/>
-      <c r="H74" s="82"/>
-      <c r="I74" s="81"/>
-      <c r="J74" s="81"/>
-      <c r="M74" s="81"/>
-      <c r="N74" s="81"/>
+      <c r="F74" s="26"/>
+      <c r="M74" s="26"/>
     </row>
     <row r="75" spans="3:17">
       <c r="C75" s="6"/>
@@ -2490,14 +2315,13 @@
       <c r="M75" s="26"/>
     </row>
     <row r="76" spans="3:17">
-      <c r="C76" s="6"/>
-      <c r="D76" s="6"/>
-      <c r="F76" s="26"/>
+      <c r="H76" s="8"/>
+      <c r="J76" s="26"/>
       <c r="M76" s="26"/>
     </row>
     <row r="77" spans="3:17">
-      <c r="H77" s="8"/>
-      <c r="J77" s="26"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
       <c r="M77" s="26"/>
     </row>
     <row r="78" spans="3:17">
@@ -2505,74 +2329,74 @@
       <c r="D78" s="6"/>
       <c r="M78" s="26"/>
     </row>
-    <row r="79" spans="3:17">
-      <c r="C79" s="6"/>
-      <c r="D79" s="6"/>
+    <row r="79" spans="3:17" ht="15">
+      <c r="H79" s="30"/>
+      <c r="J79" s="87"/>
       <c r="M79" s="26"/>
     </row>
-    <row r="80" spans="3:17" ht="15">
-      <c r="H80" s="30"/>
-      <c r="J80" s="87"/>
+    <row r="80" spans="3:17">
+      <c r="H80" s="27"/>
+      <c r="J80" s="26"/>
       <c r="M80" s="26"/>
+      <c r="Q80" s="26"/>
     </row>
     <row r="81" spans="1:17">
-      <c r="H81" s="27"/>
-      <c r="J81" s="26"/>
+      <c r="F81" s="26"/>
+      <c r="H81" s="9"/>
       <c r="M81" s="26"/>
-      <c r="Q81" s="26"/>
     </row>
     <row r="82" spans="1:17">
-      <c r="F82" s="26"/>
-      <c r="H82" s="9"/>
+      <c r="H82" s="27"/>
+      <c r="J82" s="26"/>
       <c r="M82" s="26"/>
-    </row>
-    <row r="83" spans="1:17">
+      <c r="Q82" s="26"/>
+    </row>
+    <row r="83" spans="1:17" ht="15">
       <c r="H83" s="27"/>
-      <c r="J83" s="26"/>
+      <c r="J83"/>
+      <c r="K83" s="37"/>
       <c r="M83" s="26"/>
-      <c r="Q83" s="26"/>
     </row>
     <row r="84" spans="1:17" ht="15">
-      <c r="H84" s="27"/>
-      <c r="J84"/>
-      <c r="K84" s="37"/>
+      <c r="A84" s="25"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
+      <c r="H84" s="10"/>
+      <c r="I84" s="81"/>
       <c r="M84" s="26"/>
     </row>
-    <row r="85" spans="1:17" ht="15">
-      <c r="A85" s="25"/>
-      <c r="C85" s="6"/>
-      <c r="D85" s="6"/>
-      <c r="H85" s="10"/>
-      <c r="I85" s="81"/>
+    <row r="85" spans="1:17">
       <c r="M85" s="26"/>
     </row>
     <row r="86" spans="1:17">
+      <c r="H86" s="9"/>
       <c r="M86" s="26"/>
     </row>
     <row r="87" spans="1:17">
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
       <c r="H87" s="9"/>
       <c r="M87" s="26"/>
     </row>
     <row r="88" spans="1:17">
-      <c r="C88" s="6"/>
-      <c r="D88" s="6"/>
-      <c r="H88" s="9"/>
+      <c r="F88" s="26"/>
+      <c r="H88" s="27"/>
+      <c r="I88" s="26"/>
+      <c r="J88" s="26"/>
       <c r="M88" s="26"/>
     </row>
-    <row r="89" spans="1:17">
-      <c r="F89" s="26"/>
-      <c r="H89" s="27"/>
-      <c r="I89" s="26"/>
-      <c r="J89" s="26"/>
-      <c r="M89" s="26"/>
-    </row>
-    <row r="90" spans="1:17" ht="15">
-      <c r="F90" s="81"/>
-      <c r="H90" s="9"/>
-      <c r="I90" s="81"/>
-      <c r="J90" s="6"/>
-      <c r="M90" s="91"/>
-      <c r="N90" s="81"/>
+    <row r="89" spans="1:17" ht="15">
+      <c r="F89" s="81"/>
+      <c r="H89" s="9"/>
+      <c r="I89" s="81"/>
+      <c r="J89" s="6"/>
+      <c r="M89" s="91"/>
+      <c r="N89" s="81"/>
+    </row>
+    <row r="90" spans="1:17">
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
+      <c r="M90" s="26"/>
     </row>
     <row r="91" spans="1:17">
       <c r="C91" s="6"/>
@@ -2604,29 +2428,44 @@
       <c r="D96" s="6"/>
       <c r="M96" s="26"/>
     </row>
-    <row r="97" spans="2:20">
-      <c r="C97" s="6"/>
-      <c r="D97" s="6"/>
+    <row r="97" spans="2:20" ht="15">
+      <c r="F97" s="26"/>
+      <c r="G97"/>
+      <c r="H97" s="27"/>
+      <c r="I97"/>
+      <c r="J97" s="81"/>
+      <c r="K97" s="83"/>
       <c r="M97" s="26"/>
+      <c r="N97" s="81"/>
+      <c r="O97" s="92"/>
+      <c r="P97" s="81"/>
     </row>
     <row r="98" spans="2:20" ht="15">
       <c r="F98" s="26"/>
-      <c r="G98"/>
-      <c r="H98" s="27"/>
-      <c r="I98"/>
-      <c r="J98" s="81"/>
-      <c r="K98" s="83"/>
+      <c r="H98" s="9"/>
+      <c r="I98" s="81"/>
+      <c r="J98" s="6"/>
       <c r="M98" s="26"/>
-      <c r="N98" s="81"/>
-      <c r="O98" s="92"/>
-      <c r="P98" s="81"/>
-    </row>
-    <row r="99" spans="2:20" ht="15">
-      <c r="F99" s="26"/>
-      <c r="H99" s="9"/>
-      <c r="I99" s="81"/>
-      <c r="J99" s="6"/>
-      <c r="M99" s="26"/>
+    </row>
+    <row r="99" spans="2:20">
+      <c r="B99" s="60"/>
+      <c r="C99" s="47"/>
+      <c r="D99" s="47"/>
+      <c r="E99" s="47"/>
+      <c r="F99" s="47"/>
+      <c r="G99" s="47"/>
+      <c r="H99" s="48"/>
+      <c r="I99" s="47"/>
+      <c r="J99" s="47"/>
+      <c r="K99" s="49"/>
+      <c r="L99" s="49"/>
+      <c r="M99" s="47"/>
+      <c r="N99" s="47"/>
+      <c r="O99" s="49"/>
+      <c r="P99" s="47"/>
+      <c r="Q99" s="47"/>
+      <c r="R99" s="47"/>
+      <c r="S99" s="47"/>
     </row>
     <row r="100" spans="2:20">
       <c r="B100" s="60"/>
@@ -2668,25 +2507,25 @@
       <c r="R101" s="47"/>
       <c r="S101" s="47"/>
     </row>
-    <row r="102" spans="2:20">
-      <c r="B102" s="60"/>
-      <c r="C102" s="47"/>
-      <c r="D102" s="47"/>
-      <c r="E102" s="47"/>
-      <c r="F102" s="47"/>
-      <c r="G102" s="47"/>
-      <c r="H102" s="48"/>
-      <c r="I102" s="47"/>
-      <c r="J102" s="47"/>
-      <c r="K102" s="49"/>
-      <c r="L102" s="49"/>
-      <c r="M102" s="47"/>
-      <c r="N102" s="47"/>
-      <c r="O102" s="49"/>
-      <c r="P102" s="47"/>
-      <c r="Q102" s="47"/>
-      <c r="R102" s="47"/>
-      <c r="S102" s="47"/>
+    <row r="102" spans="2:20" ht="15">
+      <c r="C102"/>
+      <c r="D102"/>
+      <c r="E102"/>
+      <c r="F102"/>
+      <c r="G102"/>
+      <c r="H102"/>
+      <c r="I102"/>
+      <c r="J102"/>
+      <c r="K102" s="88"/>
+      <c r="L102"/>
+      <c r="M102"/>
+      <c r="N102"/>
+      <c r="O102" s="89"/>
+      <c r="P102"/>
+      <c r="Q102"/>
+      <c r="R102"/>
+      <c r="S102"/>
+      <c r="T102" s="99"/>
     </row>
     <row r="103" spans="2:20" ht="15">
       <c r="C103"/>
@@ -2697,16 +2536,13 @@
       <c r="H103"/>
       <c r="I103"/>
       <c r="J103"/>
-      <c r="K103" s="88"/>
+      <c r="K103"/>
       <c r="L103"/>
       <c r="M103"/>
       <c r="N103"/>
-      <c r="O103" s="89"/>
+      <c r="O103" s="37"/>
       <c r="P103"/>
-      <c r="Q103"/>
-      <c r="R103"/>
       <c r="S103"/>
-      <c r="T103" s="99"/>
     </row>
     <row r="104" spans="2:20" ht="15">
       <c r="C104"/>
@@ -2722,7 +2558,6 @@
       <c r="M104"/>
       <c r="N104"/>
       <c r="O104" s="37"/>
-      <c r="P104"/>
       <c r="S104"/>
     </row>
     <row r="105" spans="2:20" ht="15">
@@ -2738,7 +2573,7 @@
       <c r="L105"/>
       <c r="M105"/>
       <c r="N105"/>
-      <c r="O105" s="37"/>
+      <c r="O105" s="23"/>
       <c r="S105"/>
     </row>
     <row r="106" spans="2:20" ht="15">
@@ -2754,7 +2589,7 @@
       <c r="L106"/>
       <c r="M106"/>
       <c r="N106"/>
-      <c r="O106" s="23"/>
+      <c r="O106" s="37"/>
       <c r="S106"/>
     </row>
     <row r="107" spans="2:20" ht="15">
@@ -2780,7 +2615,7 @@
       <c r="F108"/>
       <c r="G108"/>
       <c r="H108"/>
-      <c r="I108"/>
+      <c r="I108" s="85"/>
       <c r="J108"/>
       <c r="K108"/>
       <c r="L108"/>
@@ -2790,40 +2625,27 @@
       <c r="S108"/>
     </row>
     <row r="109" spans="2:20" ht="15">
-      <c r="C109"/>
-      <c r="D109"/>
-      <c r="E109"/>
-      <c r="F109"/>
-      <c r="G109"/>
-      <c r="H109"/>
-      <c r="I109" s="85"/>
-      <c r="J109"/>
-      <c r="K109"/>
-      <c r="L109"/>
-      <c r="M109"/>
-      <c r="N109"/>
-      <c r="O109" s="37"/>
+      <c r="H109" s="3"/>
+      <c r="K109" s="3"/>
+      <c r="O109" s="33"/>
       <c r="S109"/>
     </row>
-    <row r="110" spans="2:20" ht="15">
-      <c r="H110" s="3"/>
-      <c r="K110" s="3"/>
-      <c r="O110" s="33"/>
-      <c r="S110"/>
+    <row r="111" spans="2:20">
+      <c r="O111" s="33"/>
     </row>
     <row r="112" spans="2:20">
-      <c r="O112" s="33"/>
-    </row>
-    <row r="113" spans="2:21">
-      <c r="O113" s="3"/>
-    </row>
-    <row r="114" spans="2:21" s="84" customFormat="1" ht="15">
-      <c r="B114" s="94"/>
-      <c r="H114" s="95"/>
-      <c r="I114" s="98"/>
-      <c r="K114" s="96"/>
-      <c r="L114" s="96"/>
-      <c r="O114" s="97"/>
+      <c r="O112" s="3"/>
+    </row>
+    <row r="113" spans="2:21" s="84" customFormat="1" ht="15">
+      <c r="B113" s="94"/>
+      <c r="H113" s="95"/>
+      <c r="I113" s="98"/>
+      <c r="K113" s="96"/>
+      <c r="L113" s="96"/>
+      <c r="O113" s="97"/>
+    </row>
+    <row r="114" spans="2:21">
+      <c r="O114" s="33"/>
     </row>
     <row r="115" spans="2:21">
       <c r="O115" s="33"/>
@@ -2831,27 +2653,25 @@
     <row r="116" spans="2:21">
       <c r="O116" s="33"/>
     </row>
-    <row r="117" spans="2:21">
-      <c r="O117" s="33"/>
-    </row>
-    <row r="118" spans="2:21" s="84" customFormat="1" ht="15">
-      <c r="B118" s="94"/>
-      <c r="H118" s="95"/>
-      <c r="I118" s="98"/>
-      <c r="K118" s="96"/>
-      <c r="L118" s="96"/>
-      <c r="O118" s="96"/>
-      <c r="P118" s="100"/>
-      <c r="R118" s="100"/>
-      <c r="U118" s="100"/>
-    </row>
-    <row r="119" spans="2:21" ht="15">
-      <c r="C119" s="81"/>
-      <c r="O119" s="33"/>
+    <row r="117" spans="2:21" s="84" customFormat="1" ht="15">
+      <c r="B117" s="94"/>
+      <c r="H117" s="95"/>
+      <c r="I117" s="98"/>
+      <c r="K117" s="96"/>
+      <c r="L117" s="96"/>
+      <c r="O117" s="96"/>
+      <c r="P117" s="100"/>
+      <c r="R117" s="100"/>
+      <c r="U117" s="100"/>
+    </row>
+    <row r="118" spans="2:21" ht="15">
+      <c r="C118" s="81"/>
+      <c r="O118" s="33"/>
     </row>
   </sheetData>
-  <autoFilter ref="A12:S111" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A12:S110" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="9">
+    <mergeCell ref="O10:O11"/>
     <mergeCell ref="T3:T5"/>
     <mergeCell ref="T6:T7"/>
     <mergeCell ref="T8:T9"/>
@@ -2860,7 +2680,6 @@
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="G5:J5"/>
-    <mergeCell ref="O10:O11"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2905,16 +2724,16 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:23">
@@ -2924,102 +2743,102 @@
     </row>
     <row r="3" spans="1:23">
       <c r="A3" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="111" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="112"/>
+      <c r="D3" s="68"/>
+      <c r="F3" s="109" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="110"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="113" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="114"/>
+      <c r="L3" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="107" t="s">
+      <c r="O3" s="70" t="s">
         <v>36</v>
-      </c>
-      <c r="C3" s="108"/>
-      <c r="D3" s="68"/>
-      <c r="F3" s="119" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="120"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="109" t="s">
-        <v>38</v>
-      </c>
-      <c r="J3" s="110"/>
-      <c r="L3" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="M3" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="N3" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="O3" s="70" t="s">
-        <v>46</v>
       </c>
       <c r="P3" s="65"/>
       <c r="Q3" s="11" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="R3" s="22">
         <v>6</v>
       </c>
       <c r="S3" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="T3" s="117" t="s">
-        <v>57</v>
+        <v>41</v>
+      </c>
+      <c r="T3" s="107" t="s">
+        <v>47</v>
       </c>
       <c r="U3" s="11" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="V3" s="63">
         <v>1</v>
       </c>
       <c r="W3" s="64" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:23">
       <c r="E4" s="1"/>
       <c r="H4" s="5"/>
       <c r="M4" s="20" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="O4" s="71" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="P4" s="65"/>
       <c r="R4" s="13">
         <v>5</v>
       </c>
       <c r="S4" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="T4" s="118"/>
+        <v>42</v>
+      </c>
+      <c r="T4" s="108"/>
     </row>
     <row r="5" spans="1:23" ht="15" customHeight="1">
-      <c r="B5" s="111" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="112"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="113"/>
-      <c r="G5" s="107" t="s">
-        <v>70</v>
-      </c>
-      <c r="H5" s="114"/>
-      <c r="I5" s="114"/>
-      <c r="J5" s="108"/>
+      <c r="B5" s="115" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="117"/>
+      <c r="G5" s="111" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="118"/>
+      <c r="I5" s="118"/>
+      <c r="J5" s="112"/>
       <c r="M5" s="21" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="O5" s="93" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="P5" s="65"/>
       <c r="R5" s="13">
         <v>4</v>
       </c>
       <c r="S5" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="T5" s="118"/>
+        <v>40</v>
+      </c>
+      <c r="T5" s="108"/>
     </row>
     <row r="6" spans="1:23">
       <c r="F6" s="24"/>
@@ -3027,10 +2846,10 @@
         <v>3</v>
       </c>
       <c r="S6" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="T6" s="118" t="s">
-        <v>58</v>
+        <v>43</v>
+      </c>
+      <c r="T6" s="108" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -3040,19 +2859,19 @@
       <c r="F7" s="24"/>
       <c r="H7" s="4"/>
       <c r="N7" s="11" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="O7" s="70" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="P7" s="65"/>
       <c r="R7" s="13">
         <v>2</v>
       </c>
       <c r="S7" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="T7" s="118"/>
+        <v>44</v>
+      </c>
+      <c r="T7" s="108"/>
     </row>
     <row r="8" spans="1:23">
       <c r="C8" s="24"/>
@@ -3061,17 +2880,17 @@
       <c r="F8" s="24"/>
       <c r="H8" s="4"/>
       <c r="O8" s="71" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="P8" s="65"/>
       <c r="R8" s="13">
         <v>1</v>
       </c>
       <c r="S8" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="T8" s="118" t="s">
-        <v>59</v>
+        <v>45</v>
+      </c>
+      <c r="T8" s="108" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -3081,16 +2900,16 @@
       <c r="F9" s="24"/>
       <c r="H9" s="4"/>
       <c r="O9" s="71" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="P9" s="65"/>
       <c r="R9" s="13">
         <v>0</v>
       </c>
       <c r="S9" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="T9" s="118"/>
+        <v>46</v>
+      </c>
+      <c r="T9" s="108"/>
     </row>
     <row r="10" spans="1:23">
       <c r="C10" s="24"/>
@@ -3098,25 +2917,25 @@
       <c r="E10" s="24"/>
       <c r="F10" s="24"/>
       <c r="H10" s="4"/>
-      <c r="O10" s="115" t="s">
-        <v>77</v>
+      <c r="O10" s="119" t="s">
+        <v>62</v>
       </c>
       <c r="P10" s="66"/>
       <c r="R10" s="14">
         <v>-1</v>
       </c>
       <c r="S10" s="17" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="T10" s="18"/>
     </row>
     <row r="11" spans="1:23">
-      <c r="O11" s="116"/>
+      <c r="O11" s="120"/>
       <c r="P11" s="67"/>
     </row>
     <row r="12" spans="1:23">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>0</v>
@@ -3125,7 +2944,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>2</v>
@@ -3149,19 +2968,19 @@
         <v>8</v>
       </c>
       <c r="L12" s="33" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>9</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="P12" s="16" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="Q12" s="3" t="s">
         <v>10</v>
@@ -3170,10 +2989,10 @@
         <v>11</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="T12" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="15">
@@ -3181,25 +3000,25 @@
         <v>1</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="J13" s="3">
         <v>0</v>
       </c>
       <c r="M13" s="26" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="N13" s="3">
         <v>6</v>
@@ -3208,10 +3027,10 @@
         <v>43507</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="T13" s="86" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="15">
@@ -3219,19 +3038,19 @@
         <v>2</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
       </c>
       <c r="I14" s="81" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="J14" s="3">
         <v>1</v>
@@ -3240,10 +3059,10 @@
         <v>43556</v>
       </c>
       <c r="L14" s="33" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="M14" s="26" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="N14" s="3">
         <v>6</v>
@@ -3252,10 +3071,10 @@
         <v>43551</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="T14" s="81" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="15">
@@ -3263,31 +3082,31 @@
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="D15"/>
       <c r="E15"/>
       <c r="F15" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G15" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15"/>
       <c r="L15" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="M15" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="N15">
         <v>6</v>
@@ -3296,14 +3115,14 @@
         <v>43601</v>
       </c>
       <c r="P15" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="Q15" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="R15"/>
       <c r="S15" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="T15"/>
     </row>
@@ -3312,31 +3131,31 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
       <c r="F16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G16" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16"/>
       <c r="L16" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="M16" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="N16">
         <v>6</v>
@@ -3345,17 +3164,17 @@
         <v>43601</v>
       </c>
       <c r="P16" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="Q16" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="R16"/>
       <c r="S16" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="T16" s="85" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="15">
@@ -3363,31 +3182,31 @@
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D17"/>
       <c r="E17"/>
       <c r="F17" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="G17" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17"/>
       <c r="L17" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="M17" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="N17">
         <v>6</v>
@@ -3396,17 +3215,17 @@
         <v>43601</v>
       </c>
       <c r="P17" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="Q17" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="R17"/>
       <c r="S17" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="T17" s="85" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:21" s="56" customFormat="1" ht="15">
@@ -3415,29 +3234,29 @@
         <v>6</v>
       </c>
       <c r="C18" s="56" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="F18" s="56" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="G18" s="56" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H18" s="57">
         <v>0</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="J18" s="56">
         <v>0</v>
       </c>
       <c r="K18" s="58"/>
       <c r="L18" s="58" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="M18" s="56" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="N18" s="56">
         <v>-1</v>
@@ -3446,16 +3265,16 @@
         <v>43601</v>
       </c>
       <c r="P18" s="84" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="Q18" s="56" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="S18" s="56" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="U18" s="56" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="15">
@@ -3463,33 +3282,33 @@
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="D19"/>
       <c r="E19" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="F19" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="G19" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19"/>
       <c r="L19" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="M19" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="N19">
         <v>6</v>
@@ -3498,13 +3317,13 @@
         <v>43645</v>
       </c>
       <c r="P19" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="S19" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="T19" s="81" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="15">
@@ -3512,31 +3331,31 @@
         <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="D20"/>
       <c r="E20"/>
       <c r="F20" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="G20" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20"/>
       <c r="L20" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="M20" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="N20">
         <v>6</v>
@@ -3545,13 +3364,13 @@
         <v>43641</v>
       </c>
       <c r="P20" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="S20" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="T20" s="81" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="15">
@@ -3559,31 +3378,31 @@
         <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
       <c r="F21" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G21" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21"/>
       <c r="L21" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="M21" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="N21">
         <v>6</v>
@@ -3592,13 +3411,13 @@
         <v>43689</v>
       </c>
       <c r="P21" s="3" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="S21" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="T21" s="81" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="15">
@@ -3606,22 +3425,22 @@
         <v>10</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="H22" s="82">
         <v>1</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="J22" s="81">
         <v>1</v>
@@ -3630,7 +3449,7 @@
         <v>43727</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="N22" s="3">
         <v>6</v>
@@ -3639,7 +3458,7 @@
         <v>43714</v>
       </c>
       <c r="P22" s="3" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:21">
@@ -3647,25 +3466,25 @@
         <v>11</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="J23" s="3">
         <v>0</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="N23" s="3">
         <v>6</v>
@@ -3674,7 +3493,7 @@
         <v>43740</v>
       </c>
       <c r="P23" s="3" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:21" s="104" customFormat="1" ht="15">
@@ -3683,29 +3502,29 @@
         <v>12</v>
       </c>
       <c r="C24" s="103" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="F24" s="104" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G24" s="104" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="H24" s="105">
         <v>0</v>
       </c>
       <c r="I24" s="104" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="J24" s="104">
         <v>0</v>
       </c>
       <c r="K24" s="106"/>
       <c r="L24" s="106" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="M24" s="104" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="N24" s="104">
         <v>6</v>
@@ -3714,7 +3533,7 @@
         <v>43764</v>
       </c>
       <c r="P24" s="104" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:21">
@@ -3736,6 +3555,7 @@
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="G5:J5"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
 </worksheet>

--- a/miniprogram/pages/猫咪档案.xlsx
+++ b/miniprogram/pages/猫咪档案.xlsx
@@ -3,22 +3,22 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10909"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7EEBB2B-6CDE-994F-9B43-C13C9B8AED65}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB1FA246-5649-2645-B220-4BDA3BAFE64D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2760" yWindow="1100" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="校内喵" sheetId="1" r:id="rId1"/>
     <sheet name="发现后直接寄养后送养" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">发现后直接寄养后送养!$A$12:$S$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">发现后直接寄养后送养!$A$12:$S$12</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">校内喵!$A$12:$S$110</definedName>
   </definedNames>
   <calcPr calcId="150001"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,130 +31,90 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="176">
   <si>
     <t>ID</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>名字</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>昵称</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>毛色</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>出没地点</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>性别</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>状态</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>绝育</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>绝育时间</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>外貌简述</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>关系</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>检查</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>燕南园-54号楼</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>电教楼-歌剧院</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>线路</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>朗润园桥北</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>金竹</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>艾尔</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>理科三号楼（逸夫二楼）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>橘白</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>橘</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>棕虎斑</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>健康</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>送养时间</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>图例：</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>确认的信息</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>不确认的信息</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>期待别人填充的信息</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>相较于上一次更新修改的信息</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>性别说明：</t>
@@ -217,21 +177,6 @@
     <t>未知 数据缺失</t>
   </si>
   <si>
-    <t>黑</t>
-  </si>
-  <si>
-    <t>橘白</t>
-  </si>
-  <si>
-    <t>健康</t>
-  </si>
-  <si>
-    <t>美短棕虎斑 黄眼睛</t>
-  </si>
-  <si>
-    <t>短毛橘白 中分橘 背部尾巴橘 黄眼睛</t>
-  </si>
-  <si>
     <t>出生年月</t>
   </si>
   <si>
@@ -239,283 +184,506 @@
   </si>
   <si>
     <t>状态</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>失踪==3个月以久未见</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>许久未见==3个月内见到</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>健康==1个月内见到</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>不明==目击次数过少，
 甚至可能没法确认本体</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018-08(~)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>农园</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>建立档案：2019-03-30</t>
   </si>
   <si>
+    <t>是否写入图鉴</t>
+  </si>
+  <si>
+    <t>图鉴说明</t>
+  </si>
+  <si>
+    <t>写入</t>
+  </si>
+  <si>
+    <t>第一次被目击时间</t>
+  </si>
+  <si>
+    <t>第一次被目击地点</t>
+  </si>
+  <si>
+    <t>第12次更新</t>
+  </si>
+  <si>
+    <t>建立档案：2019-10-11</t>
+  </si>
+  <si>
+    <t>最近更新时间：2019-11-04</t>
+  </si>
+  <si>
+    <t>本次更新简要说明by czj：日常更新</t>
+  </si>
+  <si>
+    <t>第2次更新</t>
+  </si>
+  <si>
+    <t>本次更新简要说明by czj：更新</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>最后补充的照片数</t>
+  </si>
+  <si>
+    <t>虎子</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>虎爷/虎妞</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>白狸</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>小狮子</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020年初</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>北北</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大橘</t>
+  </si>
+  <si>
+    <t>小橘</t>
+  </si>
+  <si>
+    <t>嘟嘟</t>
+  </si>
+  <si>
+    <t>憨憨</t>
+  </si>
+  <si>
+    <t>叨仔</t>
+  </si>
+  <si>
+    <t>AJ</t>
+  </si>
+  <si>
+    <t>小满</t>
+  </si>
+  <si>
+    <t>java</t>
+  </si>
+  <si>
+    <t>十三</t>
+  </si>
+  <si>
+    <t>雪糕</t>
+  </si>
+  <si>
+    <t>铁铁</t>
+  </si>
+  <si>
+    <t>橘色</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>送养</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>东线-2019春</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>桂圆</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙眼</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>桑葚</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>长毛橘</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮蛋</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>二五仔</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>柴柴</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>小心眼,好奇心强,困倦时撒娇多</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯白</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>西北小区</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>送养</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝育说明</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>为送养前是否绝育的信息</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个助研学姐在西北社区的车棚捡到的</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>超级活泼，玩耍的时候有时会慢半拍</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>橘白</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>逸成东苑</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>送养</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>长毛橘，白手套，白围脖</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮中带乖，听得懂自己的名字</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个住在逸成东苑的学姐救助的一只叫小乖的怀孕母猫生下的崽崽</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>同一窝的兄弟姐妹：大橘、小橘、嘟嘟、柴柴</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019 09 22</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019 10 14</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019 10 18</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019 11 07</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019 11 13</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>逸成东苑</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>送养</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>短毛橘，白手套，白口罩</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>活泼爱玩，聪明到学会了擦玻璃</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>短毛橘，除了背部和刘海以及橘口罩之外都是白的</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>橘白</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>送养</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>短毛，橘色的地方有狸花纹，橘嘴</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>亲人，活泼，特别爱唠叨，故得名叨仔</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>发现他时正被困在C楼的地下室中</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019 11 08</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>三花</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>15号楼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>三花妹妹</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>非常皮，什么都玩</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>发现她的同学当时正穿着一双和她配色很像的AJ，故得名AJ</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019 11 23</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>送养</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>非常皮，黑猫的外表奶牛猫的灵魂</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>一开始被医生误诊为女孩子，但领养人养着养着发现他长出了蛋蛋…….</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>白</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是一只有点对眼的小黑猫，短毛</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>长毛白，因不明原因失去了左眼，但这丝毫不影响她的美丽！</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>虽然胆小但不抵触人，性格很温柔，甚至有点逆来顺受（划掉）</t>
+  </si>
+  <si>
+    <t>2019 12 08</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019 12 01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>三花</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>16号楼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>送养</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>三花</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>十三是一只性格超级亲人的宝藏小三花，对撸猫新手非常友好，上手即撸，还可以像狗子随叫随到，就连洗澡的时候都不会乱动</t>
+  </si>
+  <si>
+    <t>一开始在16号楼靠颜值和亲人的性格吃百家饭</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019 12 21</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>奶牛</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>南区</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑眼罩的样子像极了黑猫警长</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>刚开始非常怕人，但是在寄养人的感化下放下了防备，变得非常亲人，以至于连出去打针都不凶人了</t>
+  </si>
+  <si>
+    <t>曾经是虎子的后宫佳丽之一</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020 01 01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>橘白</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>经历坠楼差点瘫痪的得到农大医生“猫凶”认证的小猫咪铁铁，在学姐的照料下，渐渐恢复健康并变得温柔</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020 01 18</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>玳瑁</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019-04(~)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>离世</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>砂糖橘的孩子</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>（伤口感染）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>诺亚</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>短毛玳瑁</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>点点</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>丑小鸭</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>橘白</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>农园</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019-06(~)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019-05(~)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>长毛橘白</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>北线-2019春</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨梅</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>长毛玳瑁</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否写入图鉴</t>
-  </si>
-  <si>
-    <t>图鉴说明</t>
-  </si>
-  <si>
-    <t>写入</t>
-  </si>
-  <si>
-    <t>第一次被目击时间</t>
-  </si>
-  <si>
-    <t>第一次被目击地点</t>
-  </si>
-  <si>
-    <t>北线-2019秋</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>罗小黑</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>朗润-家属区</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>燕南园</t>
-  </si>
-  <si>
-    <t>理科三号楼</t>
-  </si>
-  <si>
-    <t>电教</t>
-  </si>
-  <si>
-    <t>朗润</t>
-  </si>
-  <si>
-    <t>橘</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>微纳楼</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>橘色虎斑纹，白肚皮，但是白色很少</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>一体</t>
-  </si>
-  <si>
-    <t>2019-05(~)</t>
-  </si>
-  <si>
-    <t>短毛橘</t>
-  </si>
-  <si>
-    <t>短毛黑，黄眼睛</t>
-  </si>
-  <si>
-    <t>霍夫</t>
-  </si>
-  <si>
-    <t>伙夫</t>
-  </si>
-  <si>
-    <t>2019 07 29</t>
-  </si>
-  <si>
-    <t>2019 06 10</t>
-  </si>
-  <si>
-    <t>2019 07 22</t>
-  </si>
-  <si>
-    <t>2019 07 18</t>
-  </si>
-  <si>
-    <t>2019 08 12</t>
-  </si>
-  <si>
-    <t>大米</t>
-  </si>
-  <si>
-    <t>宿舍区</t>
-  </si>
-  <si>
-    <t>澡堂</t>
-  </si>
-  <si>
-    <t>橘尾，白身，头顶有两块橘，短毛</t>
-  </si>
-  <si>
-    <t>短毛橘白，橘尾，白身，头顶有两块橘，背上和后腿上也有几块橘</t>
-  </si>
-  <si>
-    <t>送养</t>
-  </si>
-  <si>
-    <t>湖北</t>
-  </si>
-  <si>
-    <t>第12次更新</t>
-  </si>
-  <si>
-    <t>建立档案：2019-10-11</t>
-  </si>
-  <si>
-    <t>2019 05 24</t>
-  </si>
-  <si>
-    <t>2019 09 27</t>
-  </si>
-  <si>
-    <t>最近更新时间：2019-11-04</t>
-  </si>
-  <si>
-    <t>本次更新简要说明by czj：日常更新</t>
-  </si>
-  <si>
-    <t>二黑</t>
-  </si>
-  <si>
-    <t>2019-08(~)</t>
-  </si>
-  <si>
-    <t>第2次更新</t>
-  </si>
-  <si>
-    <t>本次更新简要说明by czj：更新</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>最后补充的照片数</t>
-  </si>
-  <si>
-    <t>虎子</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>虎爷/虎妞</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>白狸</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>小狮子</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020年初</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>越狱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>非常皮，需要大猫教育才知道收敛，有时候会嗲叫着撒娇</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是我们在水坑里捡到的崽崽，可能因为颜值不足而一直没有被领养，在2020年3月越狱，至今没有消息（祈祷</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>狸花</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>健康</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>狸花加白，似乎有美短的血统</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>活泼，黏人，每天会疯跑一会然后找地方睡大觉，话痨、很爱叫，智商不高傻傻的</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>逸成东苑</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>健康</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>三花，阴阳脸，白口罩，有狸花纹</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>柴柴从小就是6个兄弟姐妹里最乖的宝宝，性格特别好，从不抓人咬人，非常非常粘人，喜欢跟人说话，可以让人抱，被抱的时候会一直咕噜，喜欢被摸下巴，喜欢跳到腿上被按摩，即使见到生人也会去蹭蹭，熟悉一两天就可以抱着睡觉</t>
+  </si>
+  <si>
+    <t>雪儿</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>白猫</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>短毛白，黄眼睛，头顶上的一抹橘一度被学姐认为是擦不掉的脏东西</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>调养</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>短毛白，异瞳</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>调皮，对什么都好奇，能吃，如果人靠近会害怕躲开，但真的摸肚子很容易推倒会呼噜呼噜。和猫能够友好相处，喜欢跟着大猫。</t>
+  </si>
+  <si>
+    <t>我们发现她的时候她正在校河里挣扎，之后在寄养过程中，她断断续续吐出了很多火腿肠皮这样的异物，可以看出她作为一只小猫生存能力真的很不足。之后在医院又检查出骨盆骨折。现在情况已经大大好转，希望可以早日看到雪儿完全康复！</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>玳瑁色有狸花纹，耳朵红红的，嘴边糊了一块，丑萌丑萌的</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>松花蛋</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>软软</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼仔</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>橘子</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>昵称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>包括现用名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>短毛白</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>还好</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -525,16 +693,9 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="14">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
@@ -633,7 +794,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -685,12 +846,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -858,335 +1013,326 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="18" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="19" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="9" borderId="0" xfId="19" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="19" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="18" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="19" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="9" borderId="0" xfId="19" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="19" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="19" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="19" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="18" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="18" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="13" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="18" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="18" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="18" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="18" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="8" borderId="0" xfId="18" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="12" fillId="8" borderId="0" xfId="18" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="18" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="18" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="18" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="18" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="12" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="18" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="20" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1195,41 +1341,31 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="20">
     <cellStyle name="20% - 着色 2" xfId="1" builtinId="34"/>
     <cellStyle name="20% - 着色 5" xfId="19" builtinId="46"/>
-    <cellStyle name="40% - 着色 2" xfId="20" builtinId="35"/>
     <cellStyle name="40% - 着色 3" xfId="18" builtinId="39"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
@@ -1527,8 +1663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -1561,16 +1697,16 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>125</v>
+        <v>56</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>121</v>
+        <v>54</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>126</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:23">
@@ -1580,108 +1716,108 @@
     </row>
     <row r="3" spans="1:23">
       <c r="A3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="107" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="108"/>
+      <c r="D3" s="68"/>
+      <c r="F3" s="105" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="106"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="109" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="110"/>
+      <c r="L3" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="70" t="s">
         <v>26</v>
-      </c>
-      <c r="B3" s="111" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="112"/>
-      <c r="D3" s="68"/>
-      <c r="F3" s="109" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="110"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="113" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" s="114"/>
-      <c r="L3" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="M3" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="N3" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="O3" s="70" t="s">
-        <v>36</v>
       </c>
       <c r="P3" s="65"/>
       <c r="Q3" s="11" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="R3" s="22">
         <v>6</v>
       </c>
       <c r="S3" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="T3" s="107" t="s">
-        <v>47</v>
+        <v>31</v>
+      </c>
+      <c r="T3" s="103" t="s">
+        <v>37</v>
       </c>
       <c r="U3" s="11" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="V3" s="63">
         <v>0</v>
       </c>
       <c r="W3" s="64" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:23">
       <c r="E4" s="1"/>
       <c r="H4" s="5"/>
       <c r="M4" s="20" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="O4" s="71" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="P4" s="65"/>
       <c r="R4" s="13">
         <v>5</v>
       </c>
       <c r="S4" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="T4" s="104"/>
+      <c r="V4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="15" customHeight="1">
+      <c r="B5" s="111" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="113"/>
+      <c r="G5" s="107" t="s">
         <v>42</v>
       </c>
-      <c r="T4" s="108"/>
-      <c r="V4" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="W4" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" ht="15" customHeight="1">
-      <c r="B5" s="115" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="117"/>
-      <c r="G5" s="111" t="s">
-        <v>57</v>
-      </c>
-      <c r="H5" s="118"/>
-      <c r="I5" s="118"/>
-      <c r="J5" s="112"/>
+      <c r="H5" s="114"/>
+      <c r="I5" s="114"/>
+      <c r="J5" s="108"/>
       <c r="M5" s="21" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="O5" s="69" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="P5" s="65"/>
       <c r="R5" s="13">
         <v>4</v>
       </c>
       <c r="S5" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="T5" s="108"/>
+        <v>30</v>
+      </c>
+      <c r="T5" s="104"/>
     </row>
     <row r="6" spans="1:23">
       <c r="F6" s="24"/>
@@ -1689,10 +1825,10 @@
         <v>3</v>
       </c>
       <c r="S6" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="T6" s="108" t="s">
-        <v>48</v>
+        <v>33</v>
+      </c>
+      <c r="T6" s="104" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1702,19 +1838,19 @@
       <c r="F7" s="24"/>
       <c r="H7" s="4"/>
       <c r="N7" s="11" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="O7" s="70" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="P7" s="65"/>
       <c r="R7" s="13">
         <v>2</v>
       </c>
       <c r="S7" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="T7" s="108"/>
+        <v>34</v>
+      </c>
+      <c r="T7" s="104"/>
     </row>
     <row r="8" spans="1:23">
       <c r="C8" s="24"/>
@@ -1723,17 +1859,17 @@
       <c r="F8" s="24"/>
       <c r="H8" s="4"/>
       <c r="O8" s="71" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="P8" s="65"/>
       <c r="R8" s="13">
         <v>1</v>
       </c>
       <c r="S8" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="T8" s="108" t="s">
-        <v>49</v>
+        <v>35</v>
+      </c>
+      <c r="T8" s="104" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1743,16 +1879,16 @@
       <c r="F9" s="24"/>
       <c r="H9" s="4"/>
       <c r="O9" s="71" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="P9" s="65"/>
       <c r="R9" s="13">
         <v>0</v>
       </c>
       <c r="S9" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="T9" s="108"/>
+        <v>36</v>
+      </c>
+      <c r="T9" s="104"/>
     </row>
     <row r="10" spans="1:23">
       <c r="C10" s="24"/>
@@ -1760,20 +1896,20 @@
       <c r="E10" s="24"/>
       <c r="F10" s="24"/>
       <c r="H10" s="4"/>
-      <c r="O10" s="119" t="s">
-        <v>62</v>
+      <c r="O10" s="101" t="s">
+        <v>47</v>
       </c>
       <c r="P10" s="66"/>
       <c r="R10" s="14">
         <v>-1</v>
       </c>
       <c r="S10" s="17" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="T10" s="18"/>
     </row>
     <row r="11" spans="1:23">
-      <c r="O11" s="120"/>
+      <c r="O11" s="102"/>
       <c r="P11" s="67"/>
     </row>
     <row r="12" spans="1:23">
@@ -1787,7 +1923,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>2</v>
@@ -1811,19 +1947,19 @@
         <v>8</v>
       </c>
       <c r="L12" s="33" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>9</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="P12" s="16" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="Q12" s="3" t="s">
         <v>10</v>
@@ -1832,10 +1968,10 @@
         <v>11</v>
       </c>
       <c r="S12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="T12" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="T12" s="3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1843,46 +1979,77 @@
         <v>1</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>133</v>
+        <v>62</v>
       </c>
       <c r="D13" s="3">
         <v>2</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>134</v>
+        <v>63</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>135</v>
+        <v>64</v>
       </c>
       <c r="H13" s="8">
         <v>1</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="J13" s="3">
         <v>0</v>
       </c>
       <c r="K13" s="38"/>
       <c r="M13" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="N13" s="61">
-        <v>5</v>
+        <v>65</v>
+      </c>
+      <c r="N13" s="61" t="s">
+        <v>175</v>
       </c>
       <c r="O13" s="36"/>
       <c r="P13" s="24"/>
       <c r="T13" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" ht="15">
-      <c r="F14" s="24"/>
-      <c r="H14" s="8"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="72"/>
-      <c r="P14" s="24"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="B14" s="2">
+        <v>2</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="115">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H14" s="7">
+        <v>1</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="33">
+        <v>43617</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="O14" s="33"/>
+      <c r="R14" s="3" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="15" spans="1:23">
       <c r="O15" s="36"/>
@@ -2006,7 +2173,7 @@
       <c r="H29"/>
       <c r="I29" s="26"/>
       <c r="J29"/>
-      <c r="K29" s="88"/>
+      <c r="K29" s="87"/>
       <c r="M29" s="26"/>
       <c r="N29" s="24"/>
     </row>
@@ -2086,7 +2253,7 @@
       <c r="H39"/>
       <c r="I39" s="26"/>
       <c r="J39"/>
-      <c r="K39" s="88"/>
+      <c r="K39" s="87"/>
       <c r="M39" s="26"/>
       <c r="N39" s="24"/>
       <c r="O39" s="77"/>
@@ -2331,7 +2498,7 @@
     </row>
     <row r="79" spans="3:17" ht="15">
       <c r="H79" s="30"/>
-      <c r="J79" s="87"/>
+      <c r="J79" s="86"/>
       <c r="M79" s="26"/>
     </row>
     <row r="80" spans="3:17">
@@ -2390,7 +2557,7 @@
       <c r="H89" s="9"/>
       <c r="I89" s="81"/>
       <c r="J89" s="6"/>
-      <c r="M89" s="91"/>
+      <c r="M89" s="89"/>
       <c r="N89" s="81"/>
     </row>
     <row r="90" spans="1:17">
@@ -2437,7 +2604,7 @@
       <c r="K97" s="83"/>
       <c r="M97" s="26"/>
       <c r="N97" s="81"/>
-      <c r="O97" s="92"/>
+      <c r="O97" s="90"/>
       <c r="P97" s="81"/>
     </row>
     <row r="98" spans="2:20" ht="15">
@@ -2516,16 +2683,16 @@
       <c r="H102"/>
       <c r="I102"/>
       <c r="J102"/>
-      <c r="K102" s="88"/>
+      <c r="K102" s="87"/>
       <c r="L102"/>
       <c r="M102"/>
       <c r="N102"/>
-      <c r="O102" s="89"/>
+      <c r="O102" s="88"/>
       <c r="P102"/>
       <c r="Q102"/>
       <c r="R102"/>
       <c r="S102"/>
-      <c r="T102" s="99"/>
+      <c r="T102" s="97"/>
     </row>
     <row r="103" spans="2:20" ht="15">
       <c r="C103"/>
@@ -2637,12 +2804,12 @@
       <c r="O112" s="3"/>
     </row>
     <row r="113" spans="2:21" s="84" customFormat="1" ht="15">
-      <c r="B113" s="94"/>
-      <c r="H113" s="95"/>
-      <c r="I113" s="98"/>
-      <c r="K113" s="96"/>
-      <c r="L113" s="96"/>
-      <c r="O113" s="97"/>
+      <c r="B113" s="92"/>
+      <c r="H113" s="93"/>
+      <c r="I113" s="96"/>
+      <c r="K113" s="94"/>
+      <c r="L113" s="94"/>
+      <c r="O113" s="95"/>
     </row>
     <row r="114" spans="2:21">
       <c r="O114" s="33"/>
@@ -2654,15 +2821,15 @@
       <c r="O116" s="33"/>
     </row>
     <row r="117" spans="2:21" s="84" customFormat="1" ht="15">
-      <c r="B117" s="94"/>
-      <c r="H117" s="95"/>
-      <c r="I117" s="98"/>
-      <c r="K117" s="96"/>
-      <c r="L117" s="96"/>
-      <c r="O117" s="96"/>
-      <c r="P117" s="100"/>
-      <c r="R117" s="100"/>
-      <c r="U117" s="100"/>
+      <c r="B117" s="92"/>
+      <c r="H117" s="93"/>
+      <c r="I117" s="96"/>
+      <c r="K117" s="94"/>
+      <c r="L117" s="94"/>
+      <c r="O117" s="94"/>
+      <c r="P117" s="98"/>
+      <c r="R117" s="98"/>
+      <c r="U117" s="98"/>
     </row>
     <row r="118" spans="2:21" ht="15">
       <c r="C118" s="81"/>
@@ -2671,17 +2838,17 @@
   </sheetData>
   <autoFilter ref="A12:S110" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="9">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="G5:J5"/>
     <mergeCell ref="O10:O11"/>
     <mergeCell ref="T3:T5"/>
     <mergeCell ref="T6:T7"/>
     <mergeCell ref="T8:T9"/>
     <mergeCell ref="F3:G3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="G5:J5"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
 </worksheet>
@@ -2689,10 +2856,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:W26"/>
+  <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView zoomScale="113" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="B13" sqref="B13:T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -2709,12 +2876,12 @@
     <col min="10" max="10" width="8.83203125" style="3"/>
     <col min="11" max="11" width="12.83203125" style="33" customWidth="1"/>
     <col min="12" max="12" width="12" style="33" customWidth="1"/>
-    <col min="13" max="13" width="40.33203125" style="3" customWidth="1"/>
-    <col min="14" max="14" width="8.83203125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="71.5" style="3" customWidth="1"/>
+    <col min="14" max="14" width="187" style="3" customWidth="1"/>
     <col min="15" max="15" width="24.33203125" style="4" customWidth="1"/>
     <col min="16" max="16" width="21.5" style="3" customWidth="1"/>
-    <col min="17" max="17" width="22.33203125" style="3" customWidth="1"/>
-    <col min="18" max="18" width="20.5" style="3" customWidth="1"/>
+    <col min="17" max="17" width="53" style="3" customWidth="1"/>
+    <col min="18" max="18" width="190.83203125" style="3" customWidth="1"/>
     <col min="19" max="19" width="18.83203125" style="3" customWidth="1"/>
     <col min="20" max="20" width="14.83203125" style="3" customWidth="1"/>
     <col min="21" max="21" width="17.6640625" style="3" customWidth="1"/>
@@ -2724,16 +2891,16 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>55</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>125</v>
+        <v>56</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>129</v>
+        <v>58</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>130</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:23">
@@ -2743,102 +2910,102 @@
     </row>
     <row r="3" spans="1:23">
       <c r="A3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="107" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="108"/>
+      <c r="D3" s="68"/>
+      <c r="F3" s="105" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="106"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="109" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="110"/>
+      <c r="L3" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="70" t="s">
         <v>26</v>
-      </c>
-      <c r="B3" s="111" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="112"/>
-      <c r="D3" s="68"/>
-      <c r="F3" s="109" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="110"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="113" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" s="114"/>
-      <c r="L3" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="M3" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="N3" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="O3" s="70" t="s">
-        <v>36</v>
       </c>
       <c r="P3" s="65"/>
       <c r="Q3" s="11" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="R3" s="22">
         <v>6</v>
       </c>
       <c r="S3" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="T3" s="107" t="s">
-        <v>47</v>
+        <v>31</v>
+      </c>
+      <c r="T3" s="103" t="s">
+        <v>37</v>
       </c>
       <c r="U3" s="11" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="V3" s="63">
         <v>1</v>
       </c>
       <c r="W3" s="64" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:23">
       <c r="E4" s="1"/>
       <c r="H4" s="5"/>
       <c r="M4" s="20" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="O4" s="71" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="P4" s="65"/>
       <c r="R4" s="13">
         <v>5</v>
       </c>
       <c r="S4" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="T4" s="104"/>
+    </row>
+    <row r="5" spans="1:23" ht="15" customHeight="1">
+      <c r="B5" s="111" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="113"/>
+      <c r="G5" s="107" t="s">
         <v>42</v>
       </c>
-      <c r="T4" s="108"/>
-    </row>
-    <row r="5" spans="1:23" ht="15" customHeight="1">
-      <c r="B5" s="115" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="117"/>
-      <c r="G5" s="111" t="s">
-        <v>57</v>
-      </c>
-      <c r="H5" s="118"/>
-      <c r="I5" s="118"/>
-      <c r="J5" s="112"/>
+      <c r="H5" s="114"/>
+      <c r="I5" s="114"/>
+      <c r="J5" s="108"/>
       <c r="M5" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="O5" s="93" t="s">
-        <v>34</v>
+        <v>24</v>
+      </c>
+      <c r="O5" s="91" t="s">
+        <v>24</v>
       </c>
       <c r="P5" s="65"/>
       <c r="R5" s="13">
         <v>4</v>
       </c>
       <c r="S5" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="T5" s="108"/>
+        <v>30</v>
+      </c>
+      <c r="T5" s="104"/>
     </row>
     <row r="6" spans="1:23">
       <c r="F6" s="24"/>
@@ -2846,32 +3013,42 @@
         <v>3</v>
       </c>
       <c r="S6" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="T6" s="108" t="s">
-        <v>48</v>
+        <v>33</v>
+      </c>
+      <c r="T6" s="104" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:23">
       <c r="C7" s="24"/>
       <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
+      <c r="E7" s="100" t="s">
+        <v>172</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>173</v>
+      </c>
       <c r="H7" s="4"/>
+      <c r="L7" s="99" t="s">
+        <v>89</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="N7" s="11" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="O7" s="70" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="P7" s="65"/>
       <c r="R7" s="13">
         <v>2</v>
       </c>
       <c r="S7" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="T7" s="108"/>
+        <v>34</v>
+      </c>
+      <c r="T7" s="104"/>
     </row>
     <row r="8" spans="1:23">
       <c r="C8" s="24"/>
@@ -2880,17 +3057,17 @@
       <c r="F8" s="24"/>
       <c r="H8" s="4"/>
       <c r="O8" s="71" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="P8" s="65"/>
       <c r="R8" s="13">
         <v>1</v>
       </c>
       <c r="S8" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="T8" s="108" t="s">
-        <v>49</v>
+        <v>35</v>
+      </c>
+      <c r="T8" s="104" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -2900,16 +3077,16 @@
       <c r="F9" s="24"/>
       <c r="H9" s="4"/>
       <c r="O9" s="71" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="P9" s="65"/>
       <c r="R9" s="13">
         <v>0</v>
       </c>
       <c r="S9" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="T9" s="108"/>
+        <v>36</v>
+      </c>
+      <c r="T9" s="104"/>
     </row>
     <row r="10" spans="1:23">
       <c r="C10" s="24"/>
@@ -2917,20 +3094,20 @@
       <c r="E10" s="24"/>
       <c r="F10" s="24"/>
       <c r="H10" s="4"/>
-      <c r="O10" s="119" t="s">
-        <v>62</v>
+      <c r="O10" s="101" t="s">
+        <v>47</v>
       </c>
       <c r="P10" s="66"/>
       <c r="R10" s="14">
         <v>-1</v>
       </c>
       <c r="S10" s="17" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="T10" s="18"/>
     </row>
     <row r="11" spans="1:23">
-      <c r="O11" s="120"/>
+      <c r="O11" s="102"/>
       <c r="P11" s="67"/>
     </row>
     <row r="12" spans="1:23">
@@ -2944,7 +3121,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>2</v>
@@ -2968,19 +3145,19 @@
         <v>8</v>
       </c>
       <c r="L12" s="33" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>9</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="P12" s="16" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="Q12" s="3" t="s">
         <v>10</v>
@@ -2989,561 +3166,703 @@
         <v>11</v>
       </c>
       <c r="S12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="T12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="T12" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" ht="15">
+    </row>
+    <row r="13" spans="1:23">
       <c r="B13" s="2">
         <v>1</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>17</v>
+        <v>67</v>
+      </c>
+      <c r="D13" s="115">
+        <v>1</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
       </c>
-      <c r="I13" t="s">
-        <v>66</v>
+      <c r="I13" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="N13" s="3">
-        <v>6</v>
-      </c>
-      <c r="O13" s="33">
-        <v>43507</v>
-      </c>
-      <c r="P13" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="T13" s="86" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" ht="15">
+      <c r="L13" s="33">
+        <v>43617</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="O13" s="33"/>
+      <c r="R13" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="U13" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="B14" s="2">
         <v>2</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>18</v>
+        <v>68</v>
+      </c>
+      <c r="D14" s="115">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>171</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
       </c>
-      <c r="I14" s="81" t="s">
-        <v>119</v>
+      <c r="I14" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="J14" s="3">
-        <v>1</v>
-      </c>
-      <c r="K14" s="33">
-        <v>43556</v>
-      </c>
-      <c r="L14" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="M14" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="N14" s="3">
-        <v>6</v>
-      </c>
-      <c r="O14" s="33">
-        <v>43551</v>
-      </c>
-      <c r="P14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L14" s="33">
+        <v>43704</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="N14" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="T14" s="81" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" ht="15">
+      <c r="Q14" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="B15" s="2">
         <v>3</v>
       </c>
-      <c r="C15" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15"/>
-      <c r="E15"/>
-      <c r="F15" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15">
+      <c r="C15" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="115">
         <v>1</v>
       </c>
-      <c r="I15" t="s">
-        <v>66</v>
-      </c>
-      <c r="J15">
+      <c r="E15" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="H15" s="7">
+        <v>1</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15"/>
-      <c r="L15" t="s">
-        <v>72</v>
-      </c>
-      <c r="M15" t="s">
-        <v>105</v>
-      </c>
-      <c r="N15">
-        <v>6</v>
-      </c>
-      <c r="O15" s="89">
-        <v>43601</v>
-      </c>
-      <c r="P15" t="s">
+      <c r="L15" s="33">
+        <v>43704</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="R15" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="Q15" t="s">
-        <v>74</v>
-      </c>
-      <c r="R15"/>
-      <c r="S15" t="s">
-        <v>67</v>
-      </c>
-      <c r="T15"/>
-    </row>
-    <row r="16" spans="1:23" ht="15">
+      <c r="U15" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="B16" s="2">
         <v>4</v>
       </c>
-      <c r="C16" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16"/>
-      <c r="E16"/>
-      <c r="F16" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16">
+      <c r="C16" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="115">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="H16" s="7">
         <v>1</v>
       </c>
-      <c r="I16" t="s">
-        <v>66</v>
-      </c>
-      <c r="J16">
+      <c r="I16" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="J16" s="3">
         <v>0</v>
       </c>
-      <c r="K16"/>
-      <c r="L16" t="s">
-        <v>72</v>
-      </c>
-      <c r="M16" t="s">
-        <v>105</v>
-      </c>
-      <c r="N16">
-        <v>6</v>
-      </c>
-      <c r="O16" s="89">
-        <v>43601</v>
-      </c>
-      <c r="P16" t="s">
+      <c r="L16" s="33">
+        <v>43705</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="N16" s="3">
+        <v>-1</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="R16" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="Q16" t="s">
-        <v>74</v>
-      </c>
-      <c r="R16"/>
-      <c r="S16" t="s">
-        <v>67</v>
-      </c>
-      <c r="T16" s="85" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" ht="15">
+      <c r="U16" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="2:21">
       <c r="B17" s="2">
         <v>5</v>
       </c>
-      <c r="C17" t="s">
-        <v>70</v>
-      </c>
-      <c r="D17"/>
-      <c r="E17"/>
-      <c r="F17" t="s">
+      <c r="C17" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="G17" t="s">
-        <v>14</v>
-      </c>
-      <c r="H17">
+      <c r="D17" s="115">
         <v>0</v>
       </c>
-      <c r="I17" t="s">
-        <v>66</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17"/>
-      <c r="L17" t="s">
+      <c r="F17" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1</v>
+      </c>
+      <c r="K17" s="33">
+        <v>43758</v>
+      </c>
+      <c r="L17" s="33">
+        <v>43556</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21">
+      <c r="B18" s="2">
+        <v>6</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="M17" t="s">
-        <v>77</v>
-      </c>
-      <c r="N17">
-        <v>6</v>
-      </c>
-      <c r="O17" s="89">
-        <v>43601</v>
-      </c>
-      <c r="P17" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>74</v>
-      </c>
-      <c r="R17"/>
-      <c r="S17" t="s">
-        <v>67</v>
-      </c>
-      <c r="T17" s="85" t="s">
+      <c r="D18" s="115">
+        <v>1</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="18" spans="1:21" s="56" customFormat="1" ht="15">
-      <c r="A18" s="54"/>
-      <c r="B18" s="55">
-        <v>6</v>
-      </c>
-      <c r="C18" s="56" t="s">
-        <v>86</v>
-      </c>
-      <c r="F18" s="56" t="s">
-        <v>71</v>
-      </c>
-      <c r="G18" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="H18" s="57">
-        <v>0</v>
-      </c>
-      <c r="I18" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="J18" s="56">
-        <v>0</v>
-      </c>
-      <c r="K18" s="58"/>
-      <c r="L18" s="58" t="s">
-        <v>72</v>
-      </c>
-      <c r="M18" s="56" t="s">
-        <v>87</v>
-      </c>
-      <c r="N18" s="56">
-        <v>-1</v>
-      </c>
-      <c r="O18" s="58">
-        <v>43601</v>
-      </c>
-      <c r="P18" s="84" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q18" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="S18" s="56" t="s">
-        <v>67</v>
-      </c>
-      <c r="U18" s="56" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" ht="15">
+      <c r="H18" s="7">
+        <v>1</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="J18" s="3">
+        <v>1</v>
+      </c>
+      <c r="K18" s="33">
+        <v>43668</v>
+      </c>
+      <c r="L18" s="33">
+        <v>42370</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="U18" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21">
       <c r="B19" s="2">
         <v>7</v>
       </c>
-      <c r="C19" t="s">
-        <v>76</v>
-      </c>
-      <c r="D19"/>
-      <c r="E19" t="s">
-        <v>79</v>
-      </c>
-      <c r="F19" t="s">
-        <v>80</v>
-      </c>
-      <c r="G19" t="s">
-        <v>81</v>
-      </c>
-      <c r="H19">
+      <c r="C19" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="115">
+        <v>1</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H19" s="7">
         <v>0</v>
       </c>
-      <c r="I19" t="s">
-        <v>66</v>
-      </c>
-      <c r="J19">
+      <c r="I19" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="J19" s="3">
         <v>0</v>
       </c>
-      <c r="K19"/>
-      <c r="L19" t="s">
-        <v>82</v>
-      </c>
-      <c r="M19" t="s">
-        <v>117</v>
-      </c>
-      <c r="N19">
-        <v>6</v>
-      </c>
-      <c r="O19" s="90">
-        <v>43645</v>
-      </c>
-      <c r="P19" t="s">
-        <v>64</v>
-      </c>
-      <c r="S19" t="s">
-        <v>67</v>
-      </c>
-      <c r="T19" s="81" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" ht="15">
+      <c r="L19" s="33">
+        <v>43678</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="R19" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="U19" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="2:21">
       <c r="B20" s="2">
         <v>8</v>
       </c>
-      <c r="C20" t="s">
-        <v>78</v>
-      </c>
-      <c r="D20"/>
-      <c r="E20"/>
-      <c r="F20" t="s">
-        <v>80</v>
-      </c>
-      <c r="G20" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20">
+      <c r="C20" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="115">
         <v>0</v>
       </c>
-      <c r="I20" t="s">
-        <v>66</v>
-      </c>
-      <c r="J20">
+      <c r="F20" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="H20" s="7">
+        <v>1</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="J20" s="3">
         <v>0</v>
       </c>
-      <c r="K20"/>
-      <c r="L20" t="s">
-        <v>104</v>
-      </c>
-      <c r="M20" t="s">
-        <v>84</v>
-      </c>
-      <c r="N20">
-        <v>6</v>
-      </c>
-      <c r="O20" s="37">
-        <v>43641</v>
-      </c>
-      <c r="P20" t="s">
-        <v>99</v>
-      </c>
-      <c r="S20" t="s">
-        <v>85</v>
-      </c>
-      <c r="T20" s="81" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" ht="15">
+      <c r="L20" s="33">
+        <v>43678</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="2:21">
       <c r="B21" s="2">
         <v>9</v>
       </c>
-      <c r="C21" t="s">
-        <v>94</v>
-      </c>
-      <c r="D21"/>
-      <c r="E21"/>
-      <c r="F21" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="C21" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="115">
+        <v>2</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H21" s="7">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="I21" t="s">
-        <v>119</v>
-      </c>
-      <c r="J21">
+      <c r="J21" s="3">
         <v>0</v>
       </c>
-      <c r="K21"/>
-      <c r="L21" t="s">
-        <v>83</v>
-      </c>
-      <c r="M21" t="s">
-        <v>106</v>
-      </c>
-      <c r="N21">
-        <v>6</v>
-      </c>
-      <c r="O21" s="90">
-        <v>43689</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="S21" t="s">
-        <v>93</v>
-      </c>
-      <c r="T21" s="81" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" ht="15">
+      <c r="L21" s="33">
+        <v>43647</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22" spans="2:21">
       <c r="B22" s="2">
         <v>10</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>108</v>
+        <v>76</v>
+      </c>
+      <c r="D22" s="115">
+        <v>2</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="H22" s="82">
+        <v>133</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="J22" s="3">
         <v>1</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J22" s="81">
-        <v>1</v>
-      </c>
-      <c r="K22" s="83">
-        <v>43727</v>
+      <c r="K22" s="33">
+        <v>43810</v>
+      </c>
+      <c r="L22" s="33">
+        <v>43525</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="N22" s="3">
-        <v>6</v>
-      </c>
-      <c r="O22" s="33">
-        <v>43714</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21">
+        <v>135</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23" spans="2:21">
       <c r="B23" s="2">
         <v>11</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>114</v>
+        <v>77</v>
+      </c>
+      <c r="D23" s="115">
+        <v>1</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>52</v>
+        <v>139</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="H23" s="7">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="J23" s="3">
         <v>1</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J23" s="3">
+      <c r="K23" s="33">
+        <v>43779</v>
+      </c>
+      <c r="L23" s="33">
+        <v>43525</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="U23" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21">
+      <c r="B24" s="2">
+        <v>12</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="115">
+        <v>2</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H24" s="7">
         <v>0</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="N23" s="3">
-        <v>6</v>
-      </c>
-      <c r="O23" s="33">
-        <v>43740</v>
-      </c>
-      <c r="P23" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" s="104" customFormat="1" ht="15">
-      <c r="A24" s="101"/>
-      <c r="B24" s="102">
-        <v>12</v>
-      </c>
-      <c r="C24" s="103" t="s">
-        <v>127</v>
-      </c>
-      <c r="F24" s="104" t="s">
-        <v>51</v>
-      </c>
-      <c r="G24" s="104" t="s">
-        <v>120</v>
-      </c>
-      <c r="H24" s="105">
+      <c r="I24" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="J24" s="3">
+        <v>1</v>
+      </c>
+      <c r="K24" s="33">
+        <v>43794</v>
+      </c>
+      <c r="L24" s="33">
+        <v>43525</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="U24" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="25" spans="2:21">
+      <c r="B25" s="2">
+        <v>13</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="115">
+        <v>2</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="H25" s="7">
         <v>0</v>
       </c>
-      <c r="I24" s="104" t="s">
-        <v>53</v>
-      </c>
-      <c r="J24" s="104">
+      <c r="I25" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K24" s="106"/>
-      <c r="L24" s="106" t="s">
-        <v>128</v>
-      </c>
-      <c r="M24" s="104" t="s">
-        <v>106</v>
-      </c>
-      <c r="N24" s="104">
-        <v>6</v>
-      </c>
-      <c r="O24" s="106">
-        <v>43764</v>
-      </c>
-      <c r="P24" s="104" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21">
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="1:21">
-      <c r="O26" s="33"/>
+      <c r="L25" s="33">
+        <v>43617</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="R25" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="2:21">
+      <c r="B26" s="2">
+        <v>14</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="115">
+        <v>1</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="J26" s="3">
+        <v>1</v>
+      </c>
+      <c r="K26" s="33">
+        <v>43906</v>
+      </c>
+      <c r="L26" s="33">
+        <v>43647</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="27" spans="2:21">
+      <c r="B27" s="2">
+        <v>15</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="115">
+        <v>1</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="H27" s="7">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="33">
+        <v>43704</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="2:21">
+      <c r="B28" s="2">
+        <v>16</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D28" s="115">
+        <v>1</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="H28" s="7">
+        <v>0</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="J28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="33">
+        <v>43770</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="R28" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="29" spans="2:21">
+      <c r="B29" s="2">
+        <v>17</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="3">
+        <v>2</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H29" s="8">
+        <v>1</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="38"/>
+      <c r="M29" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="N29" s="61">
+        <v>5</v>
+      </c>
+      <c r="O29" s="36"/>
+      <c r="P29" s="24"/>
+      <c r="U29" s="3" t="s">
+        <v>66</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A12:S23" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A12:S12" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="9">
     <mergeCell ref="T6:T7"/>
     <mergeCell ref="T8:T9"/>
@@ -3555,8 +3874,8 @@
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="G5:J5"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
 </worksheet>
 </file>